--- a/account/accounts.xlsx
+++ b/account/accounts.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="860" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="860" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="6" r:id="rId1"/>
     <sheet name="cleared bill" sheetId="15" r:id="rId2"/>
     <sheet name="cash" sheetId="1" r:id="rId3"/>
-    <sheet name="faisal truck adda" sheetId="17" r:id="rId4"/>
-    <sheet name="khalil" sheetId="16" r:id="rId5"/>
-    <sheet name="FA " sheetId="4" r:id="rId6"/>
-    <sheet name="mohsin" sheetId="10" r:id="rId7"/>
+    <sheet name="khalil" sheetId="16" r:id="rId4"/>
+    <sheet name="FA " sheetId="4" r:id="rId5"/>
+    <sheet name="vicky" sheetId="18" r:id="rId6"/>
+    <sheet name="adil" sheetId="17" r:id="rId7"/>
     <sheet name="umair bhai" sheetId="3" r:id="rId8"/>
     <sheet name="akhter" sheetId="2" r:id="rId9"/>
     <sheet name="new added " sheetId="14" r:id="rId10"/>
-    <sheet name="requirement" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="221">
   <si>
     <t>Model</t>
   </si>
@@ -568,13 +567,142 @@
   </si>
   <si>
     <t>LCd</t>
+  </si>
+  <si>
+    <t>26-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E4 </t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>S6 Edge</t>
+  </si>
+  <si>
+    <t>x602</t>
+  </si>
+  <si>
+    <t>27-02-2020</t>
+  </si>
+  <si>
+    <t>Gum</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>c101</t>
+  </si>
+  <si>
+    <t>Fa   return</t>
+  </si>
+  <si>
+    <t>Infinix</t>
+  </si>
+  <si>
+    <t>faisal truck add</t>
+  </si>
+  <si>
+    <t>1.5 faster</t>
+  </si>
+  <si>
+    <t>Mohsin</t>
+  </si>
+  <si>
+    <t>car charger</t>
+  </si>
+  <si>
+    <t>Mohsni</t>
+  </si>
+  <si>
+    <t>N16</t>
+  </si>
+  <si>
+    <t>javed bhai</t>
+  </si>
+  <si>
+    <t>shan</t>
+  </si>
+  <si>
+    <t>J3 Emerge</t>
+  </si>
+  <si>
+    <t>Simjack</t>
+  </si>
+  <si>
+    <t>29-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C101 </t>
+  </si>
+  <si>
+    <t>Shan Jack</t>
+  </si>
+  <si>
+    <t>Y6-Pro</t>
+  </si>
+  <si>
+    <t>touch</t>
+  </si>
+  <si>
+    <t>j3 emerge panel</t>
+  </si>
+  <si>
+    <t>Turbo Backcover</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>Dabba 6</t>
+  </si>
+  <si>
+    <t>j3 emerge backcover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z3 </t>
+  </si>
+  <si>
+    <t>backcover</t>
+  </si>
+  <si>
+    <t>adil</t>
+  </si>
+  <si>
+    <t>S6 dabba 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z5 </t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Moto G3 Panel</t>
+  </si>
+  <si>
+    <t>Dual one</t>
+  </si>
+  <si>
+    <t>5C Faster</t>
+  </si>
+  <si>
+    <t>Pouch</t>
+  </si>
+  <si>
+    <t>Data Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,8 +863,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,8 +938,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -867,11 +1014,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,7 +1060,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -900,47 +1070,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,10 +1095,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,9 +1152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1043,6 +1169,27 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,14 +1208,10 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,60 +1342,6 @@
             <a:t> bhai</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3943350" y="342900"/>
-          <a:ext cx="184731" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1529,7 +1618,7 @@
   <dimension ref="A2:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,225 +1637,225 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C2" s="56"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="56"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="101" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="40"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="43" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="59" t="s">
+      <c r="P3" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="58">
+      <c r="B4" s="42">
         <v>44045</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="58">
         <v>20040</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="39">
         <v>5582</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="I4" s="55">
-        <v>1</v>
-      </c>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="38">
         <v>2.4</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="L4" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="54">
+      <c r="M4" s="38">
         <v>40</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="54">
+      <c r="P4" s="38">
         <v>300</v>
       </c>
-      <c r="Q4" s="73">
+      <c r="Q4" s="57">
         <v>9000</v>
       </c>
-      <c r="R4" s="55"/>
+      <c r="R4" s="39"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="58">
+      <c r="B5" s="42">
         <v>44045</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="39">
         <v>7630</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="39">
         <v>1302</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="I5" s="55">
+      <c r="I5" s="39">
         <v>2</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="38">
         <v>2.8</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="38">
         <v>8</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="38">
         <v>400</v>
       </c>
-      <c r="Q5" s="73">
+      <c r="Q5" s="57">
         <v>2240</v>
       </c>
-      <c r="R5" s="55"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="58">
+      <c r="B6" s="42">
         <v>44045</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="39">
         <v>8610</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="39">
         <v>2615</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="55"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="63">
+      <c r="E7" s="47">
         <f>SUM(E4:E6)</f>
         <v>36280</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="48">
         <f>SUM(F4:F6)</f>
         <v>9499</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="54">
+      <c r="K7" s="38"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="38">
         <v>10</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="N7" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="O7" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="73">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="57">
         <v>11530</v>
       </c>
-      <c r="R7" s="54"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -1775,386 +1864,386 @@
       <c r="D8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="55"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="56" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="55">
+      <c r="I9" s="39">
         <v>3</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="M9" s="55">
-        <v>1</v>
-      </c>
-      <c r="N9" s="55" t="s">
+      <c r="M9" s="39">
+        <v>1</v>
+      </c>
+      <c r="N9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="61">
+      <c r="P9" s="39"/>
+      <c r="Q9" s="45">
         <v>1350</v>
       </c>
-      <c r="R9" s="55"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="43" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="55">
+      <c r="I10" s="39">
         <v>4</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="M10" s="55">
-        <v>1</v>
-      </c>
-      <c r="N10" s="55" t="s">
+      <c r="M10" s="39">
+        <v>1</v>
+      </c>
+      <c r="N10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="55" t="s">
+      <c r="O10" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="61">
+      <c r="P10" s="39"/>
+      <c r="Q10" s="45">
         <v>2000</v>
       </c>
-      <c r="R10" s="55"/>
+      <c r="R10" s="39"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="58">
+      <c r="B11" s="42">
         <v>44045</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="39">
         <v>500</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="39">
         <v>100</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="55"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="58">
+      <c r="B12" s="42">
         <v>44045</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="39">
         <v>1050</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="39">
         <v>460</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="55">
+      <c r="I12" s="39">
         <v>5</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="75" t="s">
+      <c r="L12" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="55">
-        <v>1</v>
-      </c>
-      <c r="N12" s="55" t="s">
+      <c r="M12" s="39">
+        <v>1</v>
+      </c>
+      <c r="N12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O12" s="55" t="s">
+      <c r="O12" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="61">
+      <c r="P12" s="39"/>
+      <c r="Q12" s="45">
         <v>700</v>
       </c>
-      <c r="R12" s="55"/>
+      <c r="R12" s="39"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="58">
+      <c r="B13" s="42">
         <v>44045</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="39">
         <v>300</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="39">
         <v>130</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="55">
+      <c r="I13" s="39">
         <v>6</v>
       </c>
-      <c r="J13" s="55" t="s">
+      <c r="J13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="55" t="s">
+      <c r="K13" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="L13" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="55">
-        <v>1</v>
-      </c>
-      <c r="N13" s="55" t="s">
+      <c r="M13" s="39">
+        <v>1</v>
+      </c>
+      <c r="N13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="55" t="s">
+      <c r="O13" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="61">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="45">
         <v>700</v>
       </c>
-      <c r="R13" s="55"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="88">
+      <c r="E14" s="71">
         <v>1850</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="72">
         <v>690</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="39">
         <v>7</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="L14" s="75" t="s">
+      <c r="L14" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="55">
-        <v>1</v>
-      </c>
-      <c r="N14" s="55" t="s">
+      <c r="M14" s="39">
+        <v>1</v>
+      </c>
+      <c r="N14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="55" t="s">
+      <c r="O14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="61">
+      <c r="P14" s="39"/>
+      <c r="Q14" s="45">
         <v>700</v>
       </c>
-      <c r="R14" s="55"/>
+      <c r="R14" s="39"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H15" s="9"/>
-      <c r="I15" s="55">
+      <c r="I15" s="39">
         <v>8</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="75" t="s">
+      <c r="L15" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="55">
-        <v>1</v>
-      </c>
-      <c r="N15" s="55" t="s">
+      <c r="M15" s="39">
+        <v>1</v>
+      </c>
+      <c r="N15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="55" t="s">
+      <c r="O15" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="61">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="45">
         <v>700</v>
       </c>
-      <c r="R15" s="55"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H16" s="9"/>
-      <c r="I16" s="55">
+      <c r="I16" s="39">
         <v>9</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L16" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="55">
-        <v>1</v>
-      </c>
-      <c r="N16" s="55" t="s">
+      <c r="M16" s="39">
+        <v>1</v>
+      </c>
+      <c r="N16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55">
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39">
         <v>1100</v>
       </c>
-      <c r="R16" s="55"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H17" s="9"/>
-      <c r="I17" s="55">
+      <c r="I17" s="39">
         <v>10</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="L17" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="55">
-        <v>1</v>
-      </c>
-      <c r="N17" s="55" t="s">
+      <c r="M17" s="39">
+        <v>1</v>
+      </c>
+      <c r="N17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="55" t="s">
+      <c r="O17" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H18" s="9"/>
-      <c r="I18" s="55">
+      <c r="I18" s="39">
         <v>11</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="79">
+      <c r="M18" s="63">
         <v>3</v>
       </c>
-      <c r="N18" s="55" t="s">
+      <c r="N18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="80" t="s">
+      <c r="O18" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="39">
         <v>1700</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="39">
         <v>5100</v>
       </c>
-      <c r="R18" s="55"/>
+      <c r="R18" s="39"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" s="9"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="54">
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="38">
         <f>SUM(Q4:Q18)</f>
         <v>35120</v>
       </c>
-      <c r="R19" s="55"/>
+      <c r="R19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2169,10 +2258,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:O25"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,42 +2275,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2235,7 +2324,7 @@
       <c r="D5" s="3">
         <v>2.4</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="33" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="3">
@@ -2250,7 +2339,7 @@
       <c r="I5" s="3">
         <v>300</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="29">
         <v>9000</v>
       </c>
       <c r="K5" s="5"/>
@@ -2265,7 +2354,7 @@
       <c r="D6" s="3">
         <v>2.8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="33" t="s">
         <v>123</v>
       </c>
       <c r="F6" s="3">
@@ -2280,7 +2369,7 @@
       <c r="I6" s="3">
         <v>400</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="29">
         <v>2240</v>
       </c>
       <c r="K6" s="5"/>
@@ -2289,12 +2378,12 @@
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -2303,7 +2392,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="3">
         <v>10</v>
       </c>
@@ -2313,7 +2402,7 @@
       <c r="H8" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="30">
         <v>11530</v>
       </c>
       <c r="K8" s="3"/>
@@ -2322,12 +2411,12 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="49"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="37"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -2340,7 +2429,7 @@
       <c r="D10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="33" t="s">
         <v>119</v>
       </c>
       <c r="F10" s="5">
@@ -2353,7 +2442,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="45">
+      <c r="J10" s="31">
         <v>1350</v>
       </c>
       <c r="K10" s="5"/>
@@ -2368,7 +2457,7 @@
       <c r="D11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="33" t="s">
         <v>120</v>
       </c>
       <c r="F11" s="5">
@@ -2381,7 +2470,7 @@
         <v>68</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="45">
+      <c r="J11" s="31">
         <v>2000</v>
       </c>
       <c r="K11" s="5"/>
@@ -2390,12 +2479,12 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="49"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="11"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="45"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -2408,7 +2497,7 @@
       <c r="D13" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="33" t="s">
         <v>121</v>
       </c>
       <c r="F13" s="11">
@@ -2421,7 +2510,7 @@
         <v>68</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="45">
+      <c r="J13" s="31">
         <v>700</v>
       </c>
       <c r="K13" s="5"/>
@@ -2436,7 +2525,7 @@
       <c r="D14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="11">
@@ -2449,11 +2538,11 @@
         <v>68</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="45">
+      <c r="J14" s="31">
         <v>700</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="N14" s="41"/>
+      <c r="N14" s="27"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -2465,7 +2554,7 @@
       <c r="D15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="11">
@@ -2478,11 +2567,11 @@
         <v>68</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="45">
+      <c r="J15" s="31">
         <v>700</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="N15" s="41"/>
+      <c r="N15" s="27"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
@@ -2494,7 +2583,7 @@
       <c r="D16" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="5">
@@ -2507,7 +2596,7 @@
         <v>68</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="45">
+      <c r="J16" s="31">
         <v>700</v>
       </c>
       <c r="K16" s="5"/>
@@ -2519,10 +2608,10 @@
       <c r="C17" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="33" t="s">
         <v>130</v>
       </c>
       <c r="F17" s="11">
@@ -2547,10 +2636,10 @@
       <c r="C18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="33" t="s">
         <v>130</v>
       </c>
       <c r="F18" s="11">
@@ -2573,25 +2662,25 @@
       <c r="C19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="24">
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="25">
         <v>1700</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="25">
         <v>5100</v>
       </c>
       <c r="K19" s="5"/>
@@ -2605,49 +2694,118 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="42">
-        <f>SUM(J5:J19)</f>
-        <v>35120</v>
-      </c>
       <c r="K20" s="5"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="65">
+        <v>12</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="65">
+        <v>1</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="66">
+        <v>1100</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="9"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="65">
+        <v>13</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="65">
+        <v>1</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="66">
+        <v>2500</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="41"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="K23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="B23" s="84">
+        <v>14</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="84">
+        <v>1</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="84">
+        <v>3000</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
+      <c r="C24" s="84"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L25" s="41"/>
+      <c r="C25" s="84"/>
+      <c r="J25" s="28"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="28">
+        <v>41720</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2657,570 +2815,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="28">
-        <v>44045</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="19">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="29">
-        <v>44045</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="28">
-        <v>44045</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="28">
-        <v>44045</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="28">
-        <v>44045</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="28">
-        <v>44045</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="28">
-        <v>44045</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="28">
-        <v>44076</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="28">
-        <v>44076</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="28">
-        <v>44106</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="28">
-        <v>44106</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="28">
-        <v>44137</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="28">
-        <v>44137</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="28">
-        <v>44137</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="28">
-        <v>44137</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="28">
-        <v>44137</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="28">
-        <v>44167</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="28">
-        <v>44167</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="28">
-        <v>44167</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="28">
-        <v>44076</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="19">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="19">
-        <v>101</v>
-      </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="19">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="19">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="19">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="19">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="19">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="19">
-        <v>206</v>
-      </c>
-      <c r="E29" s="19">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="19">
-        <v>1</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="19">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="19">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="19">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="30"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="30"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="6"/>
-    </row>
-  </sheetData>
-  <sortState ref="C1:F41">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,10 +2830,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="103"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -3335,13 +2935,13 @@
       <c r="L11" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3444,7 +3044,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J19" s="36">
+      <c r="J19" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3485,20 +3085,20 @@
       <c r="B23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="5">
         <v>153</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>300</v>
       </c>
       <c r="I23" s="5"/>
@@ -3511,20 +3111,20 @@
       <c r="B24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
         <v>300</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="M24" s="57" t="s">
+      <c r="M24" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="N24" s="57" t="s">
+      <c r="N24" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3536,7 +3136,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="35">
+      <c r="I25" s="21">
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -3566,11 +3166,11 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
       <c r="M28" s="5">
         <v>3400</v>
       </c>
@@ -3750,10 +3350,10 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="48">
-        <v>0</v>
-      </c>
-      <c r="I40" s="39" t="s">
+      <c r="H40" s="32">
+        <v>0</v>
+      </c>
+      <c r="I40" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J40" s="5"/>
@@ -3774,10 +3374,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:M64"/>
+  <dimension ref="B1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,16 +3387,17 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="8"/>
@@ -3807,32 +3408,32 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="2:13" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
+    <row r="3" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="67" t="s">
+      <c r="D3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4256,26 +3857,26 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>13</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="44">
         <v>220</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>400</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -4288,8 +3889,8 @@
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="70">
+      <c r="H24" s="14"/>
+      <c r="I24" s="54">
         <f>SUM(G4:G23)</f>
         <v>5060</v>
       </c>
@@ -4316,7 +3917,7 @@
       <c r="G25" s="11">
         <v>150</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5">
         <f t="shared" si="0"/>
@@ -4344,7 +3945,7 @@
       <c r="G26" s="5">
         <v>500</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5">
         <f t="shared" si="0"/>
@@ -4360,7 +3961,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5">
         <f t="shared" si="0"/>
@@ -4388,7 +3989,7 @@
       <c r="G28" s="5">
         <v>150</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5">
         <f t="shared" si="0"/>
@@ -4419,7 +4020,7 @@
       <c r="G29" s="11">
         <v>100</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5">
         <f t="shared" si="0"/>
@@ -4445,7 +4046,7 @@
       <c r="G30" s="5">
         <v>150</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
         <f t="shared" si="0"/>
@@ -4459,7 +4060,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
         <f t="shared" si="0"/>
@@ -4485,7 +4086,7 @@
       <c r="G32" s="5">
         <v>450</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5">
         <f t="shared" si="0"/>
@@ -4529,41 +4130,41 @@
         <v>6660</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="70">
+      <c r="I34" s="54">
         <f>SUM(G4:G33)</f>
         <v>6660</v>
       </c>
-      <c r="J34" s="111">
+      <c r="J34" s="88">
         <f>SUM(J4:J33)</f>
         <v>2265</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
+    <row r="35" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="67" t="s">
+      <c r="D35" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="67" t="s">
+      <c r="G35" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="67" t="s">
+      <c r="I35" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="67" t="s">
+      <c r="J35" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4687,39 +4288,39 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="63">
+      <c r="I42" s="47">
         <v>8710</v>
       </c>
-      <c r="J42" s="63">
+      <c r="J42" s="47">
         <v>2635</v>
       </c>
     </row>
-    <row r="44" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="67" t="s">
+    <row r="44" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="67" t="s">
+      <c r="D44" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="67" t="s">
+      <c r="G44" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="67" t="s">
+      <c r="H44" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="67" t="s">
+      <c r="J44" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4790,7 +4391,7 @@
       <c r="C47" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="108" t="s">
+      <c r="D47" s="85" t="s">
         <v>158</v>
       </c>
       <c r="E47" s="11" t="s">
@@ -4835,60 +4436,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9">
         <f>SUM(G45:G48)</f>
         <v>2450</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="J49" s="112">
+      <c r="J49" s="89">
         <f>SUM(J45:J48)</f>
         <v>1045</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="110">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I50" s="87">
         <v>11160</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="94">
         <v>3680</v>
       </c>
     </row>
-    <row r="51" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="67" t="s">
+    <row r="51" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="67" t="s">
+      <c r="D51" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="67" t="s">
+      <c r="G51" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="67" t="s">
+      <c r="H51" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="67" t="s">
+      <c r="I51" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J51" s="67" t="s">
+      <c r="J51" s="51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -4913,56 +4514,56 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="9"/>
       <c r="J53" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="110">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="87">
         <v>11260</v>
       </c>
-      <c r="J54" s="33">
+      <c r="J54" s="93">
         <v>3750</v>
       </c>
     </row>
-    <row r="55" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="67" t="s">
+    <row r="55" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="67" t="s">
+      <c r="D55" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="67" t="s">
+      <c r="G55" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="67" t="s">
+      <c r="H55" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="67" t="s">
+      <c r="I55" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J55" s="67" t="s">
+      <c r="J55" s="51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>1</v>
       </c>
@@ -4977,36 +4578,36 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="58" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="67" t="s">
+    <row r="58" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="67" t="s">
+      <c r="D58" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="67" t="s">
+      <c r="G58" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="67" t="s">
+      <c r="H58" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="67" t="s">
+      <c r="I58" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="67" t="s">
+      <c r="J58" s="51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <v>1</v>
       </c>
@@ -5031,8 +4632,11 @@
         <f>(G59-F59)</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
         <v>2</v>
       </c>
@@ -5057,8 +4661,11 @@
         <f t="shared" ref="J60:J62" si="2">(G60-F60)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>3</v>
       </c>
@@ -5083,49 +4690,381 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="33">
+      <c r="K61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="11">
         <v>4</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="6">
         <v>1050</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="11">
         <v>1850</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="5">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G63">
+      <c r="K62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="5">
         <f>SUM(G59:G62)</f>
         <v>3850</v>
       </c>
-      <c r="J63" s="100">
+      <c r="J63" s="50">
         <f>SUM(J59:J62)</f>
         <v>1435</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I64" s="100">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I64" s="83">
         <v>15110</v>
       </c>
-      <c r="J64" s="100">
+      <c r="J64" s="94">
         <v>5185</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="6">
+        <v>220</v>
+      </c>
+      <c r="G67" s="11">
+        <v>300</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5">
+        <f>(G67-F67)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="5">
+        <v>1</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="5">
+        <v>115</v>
+      </c>
+      <c r="G68" s="5">
+        <v>200</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5">
+        <f>(G68-F68)</f>
+        <v>85</v>
+      </c>
+      <c r="K68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f>SUM(G67:G68)</f>
+        <v>500</v>
+      </c>
+      <c r="J69">
+        <f>SUM(J67:J68)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I70" s="83">
+        <v>15610</v>
+      </c>
+      <c r="J70" s="94">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5">
+        <f>(G73-F73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="6"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="5">
+        <v>300</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5">
+        <f>(G76-F76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="5">
+        <v>2</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5">
+        <v>150</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5">
+        <v>100</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5">
+        <f>SUM(H76:H78)</f>
+        <v>550</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="81" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J81" s="51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82" s="108">
+        <v>43833</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="6">
+        <v>30</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="5">
+        <v>100</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="108">
+        <v>43833</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H83">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5142,20 +5081,26 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:J7"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -5187,41 +5132,43 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.5</v>
+      <c r="B5" s="4">
+        <v>44106</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6">
-        <v>150</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>2850</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3000</v>
+      </c>
       <c r="G5" s="5">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5">
-        <v>100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>400</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="18">
-        <v>250</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -5234,6 +5181,47 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="5">
+        <v>206</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6">
+        <v>170</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>300</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <f>(G8-E8)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="17">
+        <v>300</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5248,165 +5236,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:J9"/>
+  <dimension ref="C1:R121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>44106</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2850</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3000</v>
-      </c>
-      <c r="G5" s="5">
-        <v>400</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5">
-        <v>400</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="5">
-        <v>206</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6">
-        <v>170</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>300</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <f>(G8-E8)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="18">
-        <v>300</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="C1:R84"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5425,1480 +5258,1480 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="90" t="s">
+      <c r="D3" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="90" t="s">
+      <c r="F3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="73" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="92">
+      <c r="C4" s="75">
         <v>44045</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="81">
-        <v>1</v>
-      </c>
-      <c r="F4" s="81" t="s">
+      <c r="E4" s="65">
+        <v>1</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="93">
+      <c r="H4" s="76">
         <v>195</v>
       </c>
-      <c r="I4" s="81">
-        <v>0</v>
-      </c>
-      <c r="J4" s="81">
+      <c r="I4" s="65">
+        <v>0</v>
+      </c>
+      <c r="J4" s="65">
         <v>220</v>
       </c>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65">
         <f>(J4-H4)</f>
         <v>25</v>
       </c>
-      <c r="M4" s="81"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="92">
+      <c r="C5" s="75">
         <v>44045</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="81">
-        <v>1</v>
-      </c>
-      <c r="F5" s="81" t="s">
+      <c r="E5" s="65">
+        <v>1</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="76">
         <v>650</v>
       </c>
-      <c r="I5" s="81">
-        <v>0</v>
-      </c>
-      <c r="J5" s="81">
+      <c r="I5" s="65">
+        <v>0</v>
+      </c>
+      <c r="J5" s="65">
         <v>750</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65">
         <f t="shared" ref="L5:L61" si="0">(J5-H5)</f>
         <v>100</v>
       </c>
-      <c r="M5" s="81"/>
+      <c r="M5" s="65"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="92">
+      <c r="C6" s="75">
         <v>44045</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="81">
-        <v>1</v>
-      </c>
-      <c r="F6" s="81" t="s">
+      <c r="E6" s="65">
+        <v>1</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="93">
+      <c r="H6" s="76">
         <v>160</v>
       </c>
-      <c r="I6" s="81">
-        <v>0</v>
-      </c>
-      <c r="J6" s="81">
+      <c r="I6" s="65">
+        <v>0</v>
+      </c>
+      <c r="J6" s="65">
         <v>200</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81">
+      <c r="K6" s="65"/>
+      <c r="L6" s="65">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="M6" s="81"/>
+      <c r="M6" s="65"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="92"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81">
+      <c r="C7" s="75"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="81"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="92">
+      <c r="C8" s="75">
         <v>44076</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="81">
-        <v>1</v>
-      </c>
-      <c r="F8" s="81" t="s">
+      <c r="E8" s="65">
+        <v>1</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="76">
         <v>235</v>
       </c>
-      <c r="I8" s="81">
-        <v>0</v>
-      </c>
-      <c r="J8" s="81">
+      <c r="I8" s="65">
+        <v>0</v>
+      </c>
+      <c r="J8" s="65">
         <v>270</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81">
+      <c r="K8" s="65"/>
+      <c r="L8" s="65">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="M8" s="81"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="92">
+      <c r="C9" s="75">
         <v>44076</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="81">
-        <v>1</v>
-      </c>
-      <c r="F9" s="81" t="s">
+      <c r="E9" s="65">
+        <v>1</v>
+      </c>
+      <c r="F9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="76">
         <v>115</v>
       </c>
-      <c r="I9" s="81">
-        <v>0</v>
-      </c>
-      <c r="J9" s="81">
+      <c r="I9" s="65">
+        <v>0</v>
+      </c>
+      <c r="J9" s="65">
         <v>120</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M9" s="81"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="92"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81">
+      <c r="C10" s="75"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="81"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="92">
+      <c r="C11" s="75">
         <v>44106</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="81">
-        <v>1</v>
-      </c>
-      <c r="F11" s="81" t="s">
+      <c r="E11" s="65">
+        <v>1</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="69">
         <v>23</v>
       </c>
-      <c r="I11" s="81">
-        <v>0</v>
-      </c>
-      <c r="J11" s="81">
+      <c r="I11" s="65">
+        <v>0</v>
+      </c>
+      <c r="J11" s="65">
         <v>30</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81">
+      <c r="K11" s="65"/>
+      <c r="L11" s="65">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M11" s="81"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="92">
+      <c r="C12" s="75">
         <v>44106</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="81">
-        <v>1</v>
-      </c>
-      <c r="F12" s="81" t="s">
+      <c r="E12" s="65">
+        <v>1</v>
+      </c>
+      <c r="F12" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="69">
         <v>100</v>
       </c>
-      <c r="I12" s="81">
-        <v>0</v>
-      </c>
-      <c r="J12" s="81">
+      <c r="I12" s="65">
+        <v>0</v>
+      </c>
+      <c r="J12" s="65">
         <v>130</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="81">
+      <c r="K12" s="68"/>
+      <c r="L12" s="65">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M12" s="84"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="92"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82">
+      <c r="C13" s="75"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66">
         <v>1720</v>
       </c>
-      <c r="J13" s="81">
-        <v>0</v>
-      </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="81">
+      <c r="J13" s="65">
+        <v>0</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="65" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="81"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="92">
+      <c r="C15" s="75">
         <v>44137</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="81">
-        <v>1</v>
-      </c>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="65">
+        <v>1</v>
+      </c>
+      <c r="F15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="65">
         <v>1800</v>
       </c>
-      <c r="I15" s="81">
-        <v>0</v>
-      </c>
-      <c r="J15" s="81">
+      <c r="I15" s="65">
+        <v>0</v>
+      </c>
+      <c r="J15" s="65">
         <v>2500</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81">
+      <c r="K15" s="65"/>
+      <c r="L15" s="65">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="M15" s="81"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="92">
+      <c r="C16" s="75">
         <v>44137</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="81">
-        <v>1</v>
-      </c>
-      <c r="F16" s="81" t="s">
+      <c r="E16" s="65">
+        <v>1</v>
+      </c>
+      <c r="F16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="81" t="s">
+      <c r="G16" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="81">
+      <c r="H16" s="65">
         <v>120</v>
       </c>
-      <c r="I16" s="81">
-        <v>0</v>
-      </c>
-      <c r="J16" s="81">
+      <c r="I16" s="65">
+        <v>0</v>
+      </c>
+      <c r="J16" s="65">
         <v>250</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81">
+      <c r="K16" s="65"/>
+      <c r="L16" s="65">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="M16" s="81"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C17" s="92">
+      <c r="C17" s="75">
         <v>44137</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="81">
-        <v>1</v>
-      </c>
-      <c r="F17" s="81" t="s">
+      <c r="E17" s="65">
+        <v>1</v>
+      </c>
+      <c r="F17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="65">
         <v>235</v>
       </c>
-      <c r="I17" s="81">
-        <v>0</v>
-      </c>
-      <c r="J17" s="81">
+      <c r="I17" s="65">
+        <v>0</v>
+      </c>
+      <c r="J17" s="65">
         <v>350</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81">
+      <c r="K17" s="65"/>
+      <c r="L17" s="65">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="M17" s="81"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C18" s="92">
+      <c r="C18" s="75">
         <v>44137</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="81">
-        <v>1</v>
-      </c>
-      <c r="F18" s="81" t="s">
+      <c r="E18" s="65">
+        <v>1</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="65">
         <v>1400</v>
       </c>
-      <c r="I18" s="81">
-        <v>0</v>
-      </c>
-      <c r="J18" s="81">
+      <c r="I18" s="65">
+        <v>0</v>
+      </c>
+      <c r="J18" s="65">
         <v>2200</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81">
+      <c r="K18" s="65"/>
+      <c r="L18" s="65">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="M18" s="81"/>
+      <c r="M18" s="65"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81">
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="81"/>
+      <c r="M19" s="65"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="81">
-        <v>1</v>
-      </c>
-      <c r="F20" s="81" t="s">
+      <c r="E20" s="65">
+        <v>1</v>
+      </c>
+      <c r="F20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="65">
         <v>130</v>
       </c>
-      <c r="I20" s="81">
-        <v>0</v>
-      </c>
-      <c r="J20" s="81">
+      <c r="I20" s="65">
+        <v>0</v>
+      </c>
+      <c r="J20" s="65">
         <v>250</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81">
+      <c r="K20" s="65"/>
+      <c r="L20" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M20" s="81"/>
+      <c r="M20" s="65"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81">
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="81"/>
+      <c r="M21" s="65"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="81">
-        <v>1</v>
-      </c>
-      <c r="F22" s="81" t="s">
+      <c r="E22" s="65">
+        <v>1</v>
+      </c>
+      <c r="F22" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="81">
+      <c r="H22" s="65">
         <v>1900</v>
       </c>
-      <c r="I22" s="81">
-        <v>0</v>
-      </c>
-      <c r="J22" s="81">
+      <c r="I22" s="65">
+        <v>0</v>
+      </c>
+      <c r="J22" s="65">
         <v>2300</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81">
+      <c r="K22" s="65"/>
+      <c r="L22" s="65">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="M22" s="81"/>
+      <c r="M22" s="65"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="81">
-        <v>1</v>
-      </c>
-      <c r="F23" s="81" t="s">
+      <c r="E23" s="65">
+        <v>1</v>
+      </c>
+      <c r="F23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="81">
+      <c r="H23" s="65">
         <v>195</v>
       </c>
-      <c r="I23" s="81">
-        <v>0</v>
-      </c>
-      <c r="J23" s="81">
+      <c r="I23" s="65">
+        <v>0</v>
+      </c>
+      <c r="J23" s="65">
         <v>300</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81">
+      <c r="K23" s="65"/>
+      <c r="L23" s="65">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="M23" s="81"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="81">
-        <v>1</v>
-      </c>
-      <c r="F24" s="81" t="s">
+      <c r="E24" s="65">
+        <v>1</v>
+      </c>
+      <c r="F24" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="81" t="s">
+      <c r="G24" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="65">
         <v>225</v>
       </c>
-      <c r="I24" s="81">
-        <v>0</v>
-      </c>
-      <c r="J24" s="81">
+      <c r="I24" s="65">
+        <v>0</v>
+      </c>
+      <c r="J24" s="65">
         <v>300</v>
       </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81">
+      <c r="K24" s="65"/>
+      <c r="L24" s="65">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="M24" s="81"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81">
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="81"/>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="81">
-        <v>1</v>
-      </c>
-      <c r="F26" s="81" t="s">
+      <c r="E26" s="65">
+        <v>1</v>
+      </c>
+      <c r="F26" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="65">
         <v>120</v>
       </c>
-      <c r="I26" s="81">
-        <v>0</v>
-      </c>
-      <c r="J26" s="81">
+      <c r="I26" s="65">
+        <v>0</v>
+      </c>
+      <c r="J26" s="65">
         <v>300</v>
       </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81">
+      <c r="K26" s="65"/>
+      <c r="L26" s="65">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="65"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="81">
-        <v>1</v>
-      </c>
-      <c r="F27" s="81" t="s">
+      <c r="E27" s="65">
+        <v>1</v>
+      </c>
+      <c r="F27" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="81">
+      <c r="H27" s="65">
         <v>170</v>
       </c>
-      <c r="I27" s="81">
-        <v>0</v>
-      </c>
-      <c r="J27" s="81">
+      <c r="I27" s="65">
+        <v>0</v>
+      </c>
+      <c r="J27" s="65">
         <v>300</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81">
+      <c r="K27" s="65"/>
+      <c r="L27" s="65">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="81">
-        <v>1</v>
-      </c>
-      <c r="F28" s="81" t="s">
+      <c r="E28" s="65">
+        <v>1</v>
+      </c>
+      <c r="F28" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="81">
+      <c r="H28" s="65">
         <v>1150</v>
       </c>
-      <c r="I28" s="81">
-        <v>0</v>
-      </c>
-      <c r="J28" s="81">
+      <c r="I28" s="65">
+        <v>0</v>
+      </c>
+      <c r="J28" s="65">
         <v>1600</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81">
+      <c r="K28" s="65"/>
+      <c r="L28" s="65">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81">
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="81"/>
+      <c r="M29" s="65"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="81">
-        <v>1</v>
-      </c>
-      <c r="F30" s="81" t="s">
+      <c r="E30" s="65">
+        <v>1</v>
+      </c>
+      <c r="F30" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="65">
         <v>235</v>
       </c>
-      <c r="I30" s="81">
-        <v>0</v>
-      </c>
-      <c r="J30" s="81">
+      <c r="I30" s="65">
+        <v>0</v>
+      </c>
+      <c r="J30" s="65">
         <v>350</v>
       </c>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81">
+      <c r="K30" s="65"/>
+      <c r="L30" s="65">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="M30" s="81"/>
+      <c r="M30" s="65"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="81">
-        <v>1</v>
-      </c>
-      <c r="F31" s="81" t="s">
+      <c r="E31" s="65">
+        <v>1</v>
+      </c>
+      <c r="F31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="81">
+      <c r="H31" s="65">
         <v>1150</v>
       </c>
-      <c r="I31" s="81">
-        <v>0</v>
-      </c>
-      <c r="J31" s="81">
+      <c r="I31" s="65">
+        <v>0</v>
+      </c>
+      <c r="J31" s="65">
         <v>1700</v>
       </c>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81">
+      <c r="K31" s="65"/>
+      <c r="L31" s="65">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="M31" s="81"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81">
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M32" s="81"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81">
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M33" s="81"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81">
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65">
         <v>5000</v>
       </c>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81">
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="81"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81">
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M35" s="81"/>
+      <c r="M35" s="65"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="81">
-        <v>1</v>
-      </c>
-      <c r="F36" s="81" t="s">
+      <c r="E36" s="65">
+        <v>1</v>
+      </c>
+      <c r="F36" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G36" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81">
+      <c r="H36" s="65"/>
+      <c r="I36" s="65">
         <v>1350</v>
       </c>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81">
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="81"/>
+      <c r="M36" s="65"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="81">
-        <v>1</v>
-      </c>
-      <c r="F37" s="81" t="s">
+      <c r="E37" s="65">
+        <v>1</v>
+      </c>
+      <c r="F37" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="81" t="s">
+      <c r="G37" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="81">
+      <c r="H37" s="65">
         <v>1250</v>
       </c>
-      <c r="I37" s="84"/>
-      <c r="J37" s="81">
+      <c r="I37" s="68"/>
+      <c r="J37" s="65">
         <v>1800</v>
       </c>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81">
+      <c r="K37" s="65"/>
+      <c r="L37" s="65">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="M37" s="81"/>
+      <c r="M37" s="65"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="81">
-        <v>1</v>
-      </c>
-      <c r="F38" s="81" t="s">
+      <c r="E38" s="65">
+        <v>1</v>
+      </c>
+      <c r="F38" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="81" t="s">
+      <c r="G38" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81">
+      <c r="H38" s="65"/>
+      <c r="I38" s="65">
         <v>2000</v>
       </c>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81">
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M38" s="81"/>
+      <c r="M38" s="65"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="81">
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="81"/>
+      <c r="M39" s="65"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="81">
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="95"/>
+      <c r="M40" s="78"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="81">
-        <v>1</v>
-      </c>
-      <c r="F41" s="81" t="s">
+      <c r="E41" s="65">
+        <v>1</v>
+      </c>
+      <c r="F41" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="65">
         <v>1900</v>
       </c>
-      <c r="I41" s="81">
-        <v>0</v>
-      </c>
-      <c r="J41" s="81">
+      <c r="I41" s="65">
+        <v>0</v>
+      </c>
+      <c r="J41" s="65">
         <v>2500</v>
       </c>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81">
+      <c r="K41" s="65"/>
+      <c r="L41" s="65">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="M41" s="81"/>
+      <c r="M41" s="65"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="81">
-        <v>1</v>
-      </c>
-      <c r="F42" s="81" t="s">
+      <c r="E42" s="65">
+        <v>1</v>
+      </c>
+      <c r="F42" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="81" t="s">
+      <c r="G42" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H42" s="81">
+      <c r="H42" s="65">
         <v>100</v>
       </c>
-      <c r="I42" s="81">
-        <v>0</v>
-      </c>
-      <c r="J42" s="81">
+      <c r="I42" s="65">
+        <v>0</v>
+      </c>
+      <c r="J42" s="65">
         <v>200</v>
       </c>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81">
+      <c r="K42" s="65"/>
+      <c r="L42" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M42" s="81"/>
+      <c r="M42" s="65"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="65">
         <v>10</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="81" t="s">
+      <c r="G43" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="81">
+      <c r="H43" s="65">
         <v>30</v>
       </c>
-      <c r="I43" s="81">
-        <v>0</v>
-      </c>
-      <c r="J43" s="81">
+      <c r="I43" s="65">
+        <v>0</v>
+      </c>
+      <c r="J43" s="65">
         <v>50</v>
       </c>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81">
+      <c r="K43" s="65"/>
+      <c r="L43" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M43" s="81"/>
+      <c r="M43" s="65"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="65">
         <v>5</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="81" t="s">
+      <c r="G44" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H44" s="81">
+      <c r="H44" s="65">
         <v>50</v>
       </c>
-      <c r="I44" s="81">
-        <v>0</v>
-      </c>
-      <c r="J44" s="81">
+      <c r="I44" s="65">
+        <v>0</v>
+      </c>
+      <c r="J44" s="65">
         <v>100</v>
       </c>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81">
+      <c r="K44" s="65"/>
+      <c r="L44" s="65">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="M44" s="81"/>
+      <c r="M44" s="65"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="81">
-        <v>1</v>
-      </c>
-      <c r="F45" s="81" t="s">
+      <c r="E45" s="65">
+        <v>1</v>
+      </c>
+      <c r="F45" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="81" t="s">
+      <c r="G45" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H45" s="81">
+      <c r="H45" s="65">
         <v>153</v>
       </c>
-      <c r="I45" s="81">
-        <v>0</v>
-      </c>
-      <c r="J45" s="81">
+      <c r="I45" s="65">
+        <v>0</v>
+      </c>
+      <c r="J45" s="65">
         <v>300</v>
       </c>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81">
+      <c r="K45" s="65"/>
+      <c r="L45" s="65">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="M45" s="81"/>
+      <c r="M45" s="65"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81">
-        <v>0</v>
-      </c>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81">
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65">
+        <v>0</v>
+      </c>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="81"/>
+      <c r="M46" s="65"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="81" t="s">
+      <c r="D47" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="81">
-        <v>1</v>
-      </c>
-      <c r="F47" s="81" t="s">
+      <c r="E47" s="65">
+        <v>1</v>
+      </c>
+      <c r="F47" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="81" t="s">
+      <c r="G47" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="81">
+      <c r="H47" s="65">
         <v>280</v>
       </c>
-      <c r="I47" s="81">
-        <v>0</v>
-      </c>
-      <c r="J47" s="81">
+      <c r="I47" s="65">
+        <v>0</v>
+      </c>
+      <c r="J47" s="65">
         <v>300</v>
       </c>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81">
+      <c r="K47" s="65"/>
+      <c r="L47" s="65">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M47" s="81"/>
+      <c r="M47" s="65"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="81" t="s">
+      <c r="D48" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="81">
-        <v>1</v>
-      </c>
-      <c r="F48" s="81" t="s">
+      <c r="E48" s="65">
+        <v>1</v>
+      </c>
+      <c r="F48" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="81" t="s">
+      <c r="G48" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="81">
+      <c r="H48" s="65">
         <v>15</v>
       </c>
-      <c r="I48" s="81">
-        <v>0</v>
-      </c>
-      <c r="J48" s="81">
+      <c r="I48" s="65">
+        <v>0</v>
+      </c>
+      <c r="J48" s="65">
         <v>20</v>
       </c>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81">
+      <c r="K48" s="65"/>
+      <c r="L48" s="65">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M48" s="81"/>
+      <c r="M48" s="65"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C49" s="81" t="s">
+      <c r="C49" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81" t="s">
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81">
-        <v>0</v>
-      </c>
-      <c r="J49" s="81">
+      <c r="H49" s="65"/>
+      <c r="I49" s="65">
+        <v>0</v>
+      </c>
+      <c r="J49" s="65">
         <v>30</v>
       </c>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81">
+      <c r="K49" s="65"/>
+      <c r="L49" s="65">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M49" s="81"/>
+      <c r="M49" s="65"/>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="81" t="s">
+      <c r="C50" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="81" t="s">
+      <c r="D50" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="81">
-        <v>1</v>
-      </c>
-      <c r="F50" s="81" t="s">
+      <c r="E50" s="65">
+        <v>1</v>
+      </c>
+      <c r="F50" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="81" t="s">
+      <c r="G50" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81">
+      <c r="H50" s="65"/>
+      <c r="I50" s="65">
         <v>700</v>
       </c>
-      <c r="J50" s="81"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="81">
+      <c r="J50" s="65"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M50" s="81"/>
+      <c r="M50" s="65"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="81" t="s">
+      <c r="D51" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="81">
-        <v>1</v>
-      </c>
-      <c r="F51" s="81" t="s">
+      <c r="E51" s="65">
+        <v>1</v>
+      </c>
+      <c r="F51" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="81" t="s">
+      <c r="G51" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81">
+      <c r="H51" s="65"/>
+      <c r="I51" s="65">
         <v>700</v>
       </c>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81">
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="81"/>
+      <c r="M51" s="65"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="81" t="s">
+      <c r="D52" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="81">
-        <v>1</v>
-      </c>
-      <c r="F52" s="81" t="s">
+      <c r="E52" s="65">
+        <v>1</v>
+      </c>
+      <c r="F52" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="81" t="s">
+      <c r="G52" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81">
+      <c r="H52" s="65"/>
+      <c r="I52" s="65">
         <v>700</v>
       </c>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81">
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="81"/>
+      <c r="M52" s="65"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="81" t="s">
+      <c r="D53" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="81">
-        <v>1</v>
-      </c>
-      <c r="F53" s="81" t="s">
+      <c r="E53" s="65">
+        <v>1</v>
+      </c>
+      <c r="F53" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="81" t="s">
+      <c r="G53" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81">
+      <c r="H53" s="65"/>
+      <c r="I53" s="65">
         <v>700</v>
       </c>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81">
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M53" s="81"/>
+      <c r="M53" s="65"/>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="98">
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="81">
         <v>6850</v>
       </c>
-      <c r="L54" s="81">
+      <c r="L54" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="81"/>
+      <c r="M54" s="65"/>
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="81" t="s">
+      <c r="D55" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="82">
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="66">
         <v>2770</v>
       </c>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81">
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="81"/>
+      <c r="M55" s="65"/>
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="99">
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="82">
         <v>4080</v>
       </c>
-      <c r="L56" s="81">
+      <c r="L56" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M56" s="81"/>
+      <c r="M56" s="65"/>
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="81" t="s">
+      <c r="D57" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="81">
-        <v>1</v>
-      </c>
-      <c r="F57" s="81" t="s">
+      <c r="E57" s="65">
+        <v>1</v>
+      </c>
+      <c r="F57" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="81"/>
-      <c r="I57" s="82">
+      <c r="H57" s="65"/>
+      <c r="I57" s="66">
         <v>1100</v>
       </c>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81">
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M57" s="81"/>
+      <c r="M57" s="65"/>
     </row>
     <row r="58" spans="3:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I58" s="10"/>
@@ -6913,225 +6746,225 @@
       <c r="R59"/>
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="54" t="s">
+      <c r="D60" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="54" t="s">
+      <c r="F60" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H60" s="54" t="s">
+      <c r="H60" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="54" t="s">
+      <c r="J60" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="54" t="s">
+      <c r="K60" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L60" s="54" t="s">
+      <c r="L60" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M60" s="55" t="s">
+      <c r="M60" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C61" s="81" t="s">
+      <c r="C61" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="81" t="s">
+      <c r="D61" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="81">
-        <v>1</v>
-      </c>
-      <c r="F61" s="81" t="s">
+      <c r="E61" s="65">
+        <v>1</v>
+      </c>
+      <c r="F61" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="81" t="s">
+      <c r="G61" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="82">
+      <c r="H61" s="65"/>
+      <c r="I61" s="66">
         <v>2500</v>
       </c>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81">
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M61" s="81"/>
+      <c r="M61" s="65"/>
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C62" s="81" t="s">
+      <c r="C62" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="81" t="s">
+      <c r="D62" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="81">
-        <v>1</v>
-      </c>
-      <c r="F62" s="81" t="s">
+      <c r="E62" s="65">
+        <v>1</v>
+      </c>
+      <c r="F62" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="81" t="s">
+      <c r="G62" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="81"/>
-      <c r="I62" s="82">
+      <c r="H62" s="65"/>
+      <c r="I62" s="66">
         <v>300</v>
       </c>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81">
-        <v>0</v>
-      </c>
-      <c r="M62" s="81"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65">
+        <v>0</v>
+      </c>
+      <c r="M62" s="65"/>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="82"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="81"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="65"/>
     </row>
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="82"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="84"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="68"/>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D65" s="81" t="s">
+      <c r="D65" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="81">
-        <v>1</v>
-      </c>
-      <c r="F65" s="81" t="s">
+      <c r="E65" s="65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="81" t="s">
+      <c r="G65" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H65" s="81">
+      <c r="H65" s="65">
         <v>120</v>
       </c>
-      <c r="I65" s="84"/>
-      <c r="J65" s="82">
+      <c r="I65" s="68"/>
+      <c r="J65" s="66">
         <v>250</v>
       </c>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81">
+      <c r="K65" s="65"/>
+      <c r="L65" s="65">
         <f>(J65-H65)</f>
         <v>130</v>
       </c>
-      <c r="M65" s="81"/>
+      <c r="M65" s="65"/>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D66" s="81" t="s">
+      <c r="D66" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="81">
-        <v>1</v>
-      </c>
-      <c r="F66" s="81" t="s">
+      <c r="E66" s="65">
+        <v>1</v>
+      </c>
+      <c r="F66" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="G66" s="81" t="s">
+      <c r="G66" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H66" s="81"/>
-      <c r="I66" s="82"/>
-      <c r="J66" s="81">
+      <c r="H66" s="65"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="65">
         <v>70</v>
       </c>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81">
+      <c r="K66" s="65"/>
+      <c r="L66" s="65">
         <f>(J66-H66)</f>
         <v>70</v>
       </c>
-      <c r="M66" s="81"/>
+      <c r="M66" s="65"/>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="81" t="s">
+      <c r="C67" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="81" t="s">
+      <c r="D67" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E67" s="81">
-        <v>1</v>
-      </c>
-      <c r="F67" s="81" t="s">
+      <c r="E67" s="65">
+        <v>1</v>
+      </c>
+      <c r="F67" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G67" s="81" t="s">
+      <c r="G67" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H67" s="81">
+      <c r="H67" s="65">
         <v>1050</v>
       </c>
-      <c r="I67" s="82"/>
-      <c r="J67" s="81">
+      <c r="I67" s="66"/>
+      <c r="J67" s="65">
         <v>2000</v>
       </c>
-      <c r="K67" s="81"/>
-      <c r="L67" s="81">
+      <c r="K67" s="65"/>
+      <c r="L67" s="65">
         <f>(J67-H67)</f>
         <v>950</v>
       </c>
-      <c r="M67" s="81"/>
+      <c r="M67" s="65"/>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="81">
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="65">
         <v>22040</v>
       </c>
-      <c r="K68" s="99"/>
-      <c r="L68" s="81">
+      <c r="K68" s="82"/>
+      <c r="L68" s="65">
         <v>6532</v>
       </c>
-      <c r="M68" s="81" t="s">
+      <c r="M68" s="65" t="s">
         <v>33</v>
       </c>
     </row>
@@ -7146,335 +6979,1189 @@
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="54" t="s">
+      <c r="D70" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="54" t="s">
+      <c r="F70" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="54" t="s">
+      <c r="H70" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I70" s="54" t="s">
+      <c r="I70" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J70" s="54" t="s">
+      <c r="J70" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="54" t="s">
+      <c r="K70" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L70" s="54" t="s">
+      <c r="L70" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M70" s="55" t="s">
+      <c r="M70" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C71" s="81" t="s">
+      <c r="C71" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="81" t="s">
+      <c r="D71" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="E71" s="81">
-        <v>1</v>
-      </c>
-      <c r="F71" s="81" t="s">
+      <c r="E71" s="65">
+        <v>1</v>
+      </c>
+      <c r="F71" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="81" t="s">
+      <c r="G71" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H71" s="81">
+      <c r="H71" s="65">
         <v>210</v>
       </c>
-      <c r="I71" s="82"/>
-      <c r="J71" s="81">
+      <c r="I71" s="66"/>
+      <c r="J71" s="65">
         <v>300</v>
       </c>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81">
+      <c r="K71" s="65"/>
+      <c r="L71" s="65">
         <f t="shared" ref="L71" si="1">(J71-H71)</f>
         <v>90</v>
       </c>
-      <c r="M71" s="81"/>
+      <c r="M71" s="65"/>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="81" t="s">
+      <c r="C72" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E72" s="81">
-        <v>1</v>
-      </c>
-      <c r="F72" s="81" t="s">
+      <c r="E72" s="65">
+        <v>1</v>
+      </c>
+      <c r="F72" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H72" s="81">
+      <c r="H72" s="65">
         <v>1450</v>
       </c>
-      <c r="I72" s="82"/>
-      <c r="J72" s="81">
+      <c r="I72" s="66"/>
+      <c r="J72" s="65">
         <v>2000</v>
       </c>
-      <c r="K72" s="81"/>
-      <c r="L72" s="81">
+      <c r="K72" s="65"/>
+      <c r="L72" s="65">
         <f t="shared" ref="L72" si="2">(J72-H72)</f>
         <v>550</v>
       </c>
-      <c r="M72" s="81"/>
+      <c r="M72" s="65"/>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K73" s="100">
+      <c r="K73" s="83">
         <v>4800</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="94">
         <v>7172</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="107" t="s">
+      <c r="C74" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I74" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C75" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="107" t="s">
+      <c r="D75" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="107">
-        <v>1</v>
-      </c>
-      <c r="F74" s="107"/>
-      <c r="G74" s="107" t="s">
+      <c r="E75" s="84">
+        <v>1</v>
+      </c>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="107"/>
-      <c r="I74" s="107"/>
-      <c r="J74" s="107">
+      <c r="H75" s="84">
+        <v>2400</v>
+      </c>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84">
         <v>2800</v>
       </c>
-      <c r="K74" s="107"/>
-      <c r="L74" s="107"/>
-      <c r="M74" s="107"/>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C75" s="107" t="s">
+      <c r="K75" s="84"/>
+      <c r="L75" s="84">
+        <f t="shared" ref="L75:L82" si="3">(J75-H75)</f>
+        <v>400</v>
+      </c>
+      <c r="M75" s="84"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C76" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="107" t="s">
+      <c r="D76" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="107">
-        <v>1</v>
-      </c>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107" t="s">
+      <c r="E76" s="84">
+        <v>1</v>
+      </c>
+      <c r="F76" s="84"/>
+      <c r="G76" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="107">
+      <c r="H76" s="84">
+        <v>210</v>
+      </c>
+      <c r="I76" s="84"/>
+      <c r="J76" s="84">
         <v>300</v>
       </c>
-      <c r="K75" s="107"/>
-      <c r="L75" s="107"/>
-      <c r="M75" s="107"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C76" s="107" t="s">
+      <c r="K76" s="84"/>
+      <c r="L76" s="84">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="M76" s="84"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C77" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="D76" s="109">
+      <c r="D77" s="86">
         <v>8600</v>
       </c>
-      <c r="E76" s="107">
+      <c r="E77" s="84">
         <v>5</v>
       </c>
-      <c r="F76" s="107" t="s">
+      <c r="F77" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="G76" s="107" t="s">
+      <c r="G77" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H76" s="107"/>
-      <c r="I76" s="107"/>
-      <c r="J76" s="107">
+      <c r="H77" s="84">
+        <v>15</v>
+      </c>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84">
         <v>25</v>
       </c>
-      <c r="K76" s="107"/>
-      <c r="L76" s="107"/>
-      <c r="M76" s="107"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C77" s="107" t="s">
+      <c r="K77" s="84"/>
+      <c r="L77" s="84">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M77" s="84"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C78" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="D77" s="107" t="s">
+      <c r="D78" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="E77" s="107">
+      <c r="E78" s="84">
         <v>2</v>
       </c>
-      <c r="F77" s="107" t="s">
+      <c r="F78" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="G77" s="107" t="s">
+      <c r="G78" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107">
+      <c r="H78" s="84">
         <v>40</v>
       </c>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="107"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C78" s="107" t="s">
+      <c r="I78" s="84"/>
+      <c r="J78" s="84">
+        <v>40</v>
+      </c>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="84"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C79" s="84" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="109">
+      <c r="D79" s="86">
         <v>2.8</v>
       </c>
-      <c r="E78" s="107">
-        <v>1</v>
-      </c>
-      <c r="F78" s="107" t="s">
+      <c r="E79" s="84">
+        <v>1</v>
+      </c>
+      <c r="F79" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="107" t="s">
+      <c r="G79" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107">
+      <c r="H79" s="84">
+        <v>350</v>
+      </c>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84">
+        <v>350</v>
+      </c>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="84"/>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="84"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="84">
+        <v>10</v>
+      </c>
+      <c r="F81" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="84">
+        <v>30</v>
+      </c>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84">
+        <v>50</v>
+      </c>
+      <c r="K81" s="84"/>
+      <c r="L81" s="84">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M81" s="84"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C82" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="84">
+        <v>1</v>
+      </c>
+      <c r="F82" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="G82" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="H82" s="84">
+        <v>130</v>
+      </c>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84">
+        <v>150</v>
+      </c>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M82" s="84"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="83">
+        <v>8565</v>
+      </c>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C84" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E84" s="84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="84" t="s">
+        <v>187</v>
+      </c>
+      <c r="H84" s="84"/>
+      <c r="I84" s="84">
+        <v>1700</v>
+      </c>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="84"/>
+      <c r="M84" s="84"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K85" s="83">
+        <v>6865</v>
+      </c>
+      <c r="L85" s="93">
+        <f>SUM(L75:L84)</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J87" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L87" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M87" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C88" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="84">
+        <v>1</v>
+      </c>
+      <c r="F88" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H88" s="84">
+        <v>310</v>
+      </c>
+      <c r="I88" s="84"/>
+      <c r="J88" s="84">
+        <v>600</v>
+      </c>
+      <c r="K88" s="84"/>
+      <c r="L88" s="84">
+        <f>(H88-I88)</f>
+        <v>310</v>
+      </c>
+      <c r="M88" s="84"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="84">
+        <v>1</v>
+      </c>
+      <c r="F89" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="G89" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H89" s="84">
+        <v>650</v>
+      </c>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84">
+        <v>800</v>
+      </c>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84">
+        <f>(J89-H89)</f>
+        <v>150</v>
+      </c>
+      <c r="M89" s="84"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="90">
+        <v>8600</v>
+      </c>
+      <c r="E90" s="84">
+        <v>1</v>
+      </c>
+      <c r="F90" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H90" s="84">
+        <v>3</v>
+      </c>
+      <c r="I90" s="84"/>
+      <c r="J90" s="84">
+        <v>5</v>
+      </c>
+      <c r="K90" s="84"/>
+      <c r="L90" s="84">
+        <f>(J90-I90)</f>
+        <v>5</v>
+      </c>
+      <c r="M90" s="84"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K91" s="92">
+        <v>8265</v>
+      </c>
+      <c r="L91" s="94">
+        <f>SUM(L88:L90)</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C93" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L93" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M93" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C94" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="84">
+        <v>1</v>
+      </c>
+      <c r="F94" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84">
+        <v>3000</v>
+      </c>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C95" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="84">
+        <v>1</v>
+      </c>
+      <c r="F95" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H95" s="84"/>
+      <c r="I95" s="84">
+        <v>1410</v>
+      </c>
+      <c r="J95" s="84"/>
+      <c r="K95" s="84"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C96" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="84">
+        <v>1</v>
+      </c>
+      <c r="F96" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="84" t="s">
+        <v>174</v>
+      </c>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84">
+        <v>1500</v>
+      </c>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C97" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E97" s="65">
+        <v>1</v>
+      </c>
+      <c r="F97" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G97" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="76">
+        <v>150</v>
+      </c>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65">
+        <v>250</v>
+      </c>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C98" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="65">
+        <v>1</v>
+      </c>
+      <c r="F98" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="G98" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" s="76">
         <v>400</v>
       </c>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="107"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="D80" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="E80" s="107">
+      <c r="I98" s="65"/>
+      <c r="J98" s="65">
+        <v>500</v>
+      </c>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="65"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C99" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" s="65">
+        <v>1</v>
+      </c>
+      <c r="F99" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="76">
+        <v>1</v>
+      </c>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65">
+        <v>300</v>
+      </c>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C100" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" s="65">
+        <v>1</v>
+      </c>
+      <c r="F100" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H100" s="76">
+        <v>1500</v>
+      </c>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65">
+        <v>1800</v>
+      </c>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C101" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="65">
+        <v>1</v>
+      </c>
+      <c r="F101" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" s="65"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65">
+        <v>80</v>
+      </c>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C102" s="84"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65">
+        <f>SUM(J97:J101)</f>
+        <v>2930</v>
+      </c>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+    </row>
+    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K103" s="97">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K104" s="98"/>
+    </row>
+    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C105" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I105" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M105" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C106" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106" s="65">
+        <v>1</v>
+      </c>
+      <c r="F106" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H106" s="76">
+        <v>119</v>
+      </c>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65">
+        <v>200</v>
+      </c>
+      <c r="K106" s="65"/>
+      <c r="L106" s="65"/>
+      <c r="M106" s="65"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C107" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="65">
+        <v>1</v>
+      </c>
+      <c r="F107" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H107" s="76">
+        <v>1500</v>
+      </c>
+      <c r="I107" s="65"/>
+      <c r="J107" s="84">
+        <v>1800</v>
+      </c>
+      <c r="K107" s="65"/>
+      <c r="L107" s="65"/>
+      <c r="M107" s="65"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C108" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D108" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" s="65">
+        <v>1</v>
+      </c>
+      <c r="F108" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G108" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" s="76">
+        <v>450</v>
+      </c>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65">
+        <v>500</v>
+      </c>
+      <c r="K108" s="65"/>
+      <c r="L108" s="65"/>
+      <c r="M108" s="65"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C109" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" s="77">
+        <v>8600</v>
+      </c>
+      <c r="E109" s="65">
+        <v>4</v>
+      </c>
+      <c r="F109" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G109" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="76">
+        <v>12</v>
+      </c>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65">
+        <v>20</v>
+      </c>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
+      <c r="M109" s="65"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C110" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="65">
+        <v>1</v>
+      </c>
+      <c r="F110" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G110" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H110" s="76">
+        <v>100</v>
+      </c>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65">
+        <v>150</v>
+      </c>
+      <c r="K110" s="65"/>
+      <c r="L110" s="65"/>
+      <c r="M110" s="65"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C111" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" s="65">
+        <v>1</v>
+      </c>
+      <c r="F111" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G111" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="H111" s="76">
         <v>10</v>
       </c>
-      <c r="F80" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" s="107" t="s">
+      <c r="I111" s="65"/>
+      <c r="J111" s="65">
+        <v>15</v>
+      </c>
+      <c r="K111" s="65"/>
+      <c r="L111" s="65"/>
+      <c r="M111" s="65"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C112" s="84"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65">
+        <f>SUM(J106:J111)</f>
+        <v>2685</v>
+      </c>
+      <c r="K112" s="65"/>
+      <c r="L112" s="65"/>
+      <c r="M112" s="65"/>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K113" s="107">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C115" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I115" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J115" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K115" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L115" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M115" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C116" s="106">
+        <v>43833</v>
+      </c>
+      <c r="D116" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="65">
+        <v>1</v>
+      </c>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107">
-        <v>50</v>
-      </c>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="107"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C81" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="E81" s="107">
-        <v>1</v>
-      </c>
-      <c r="F81" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="G81" s="107" t="s">
+      <c r="H116" s="76">
+        <v>450</v>
+      </c>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65">
+        <v>500</v>
+      </c>
+      <c r="K116" s="65"/>
+      <c r="L116" s="65"/>
+      <c r="M116" s="65"/>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C117" s="106">
+        <v>43833</v>
+      </c>
+      <c r="D117" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E117" s="65">
+        <v>1</v>
+      </c>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107">
+      <c r="H117" s="76">
+        <v>1100</v>
+      </c>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65">
+        <v>1200</v>
+      </c>
+      <c r="K117" s="65"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="65"/>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C118" s="106">
+        <v>43833</v>
+      </c>
+      <c r="D118" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E118" s="65">
+        <v>1</v>
+      </c>
+      <c r="F118" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G118" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H118" s="76">
+        <v>100</v>
+      </c>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65">
         <v>150</v>
       </c>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="100">
-        <v>8565</v>
-      </c>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C83" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="E83" s="107">
-        <v>1</v>
-      </c>
-      <c r="F83" s="107" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107">
-        <v>1700</v>
-      </c>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="107"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K84" s="100">
-        <v>6865</v>
+      <c r="K118" s="65"/>
+      <c r="L118" s="65"/>
+      <c r="M118" s="65"/>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C119" s="106">
+        <v>43833</v>
+      </c>
+      <c r="D119" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" s="65">
+        <v>5</v>
+      </c>
+      <c r="F119" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G119" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H119" s="76">
+        <v>175</v>
+      </c>
+      <c r="I119" s="65"/>
+      <c r="J119" s="65">
+        <v>200</v>
+      </c>
+      <c r="K119" s="65"/>
+      <c r="L119" s="65"/>
+      <c r="M119" s="65"/>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C120" s="84"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="76"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65">
+        <f>SUM(J116:J119)</f>
+        <v>2050</v>
+      </c>
+      <c r="K120" s="65"/>
+      <c r="L120" s="65"/>
+      <c r="M120" s="65"/>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K121" s="83">
+        <v>10020</v>
       </c>
     </row>
   </sheetData>
@@ -7486,109 +8173,213 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="C4:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="106">
+        <v>43833</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="65">
+        <v>1</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" s="76">
+        <v>130</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65">
+        <v>200</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="83">
+        <f>SUM(J5)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C1:L4"/>
+  <dimension ref="C3:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="D3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L3" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="4">
-        <v>44106</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="5">
-        <v>400</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>500</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="18">
-        <v>500</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="5"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="65">
+        <v>1</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="76">
+        <v>100</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65">
+        <v>150</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="65">
+        <v>5</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="76">
+        <v>175</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65">
+        <v>200</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="83">
+        <f>SUM(J4:J5)</f>
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7598,10 +8389,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7613,44 +8404,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="49" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7671,7 +8462,9 @@
       <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>2300</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -7693,7 +8486,9 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>400</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -7727,7 +8522,9 @@
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>500</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -7761,7 +8558,9 @@
       <c r="H8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <v>400</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -7783,7 +8582,9 @@
       <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>540</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -7817,7 +8618,9 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>1650</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -7839,7 +8642,9 @@
       <c r="H12" s="11">
         <v>0</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>1550</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -7866,44 +8671,87 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:20" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="54">
-        <f>SUM(E3:E13)</f>
-        <v>13</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1100</v>
+      </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38">
+        <f>SUM(E3:E15)</f>
+        <v>15</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
+        <f>SUM(I3:I15)</f>
+        <v>8440</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="91">
+        <v>8440</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L17" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7916,12 +8764,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="C1:L15"/>
+  <dimension ref="C1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7933,14 +8781,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -7978,10 +8826,10 @@
       <c r="C4" s="4">
         <v>44076</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>1616</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -8004,26 +8852,26 @@
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>44076</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="44">
         <v>3</v>
       </c>
-      <c r="H5" s="60">
-        <v>0</v>
-      </c>
-      <c r="I5" s="60">
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="44">
         <v>8</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="15"/>
       <c r="L5" s="11">
         <f t="shared" ref="L5:L12" si="0">(I5-G5)</f>
         <v>5</v>
@@ -8036,7 +8884,7 @@
       <c r="D6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -8059,10 +8907,10 @@
       <c r="C7" s="4">
         <v>44167</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -8072,7 +8920,7 @@
         <v>120</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="87">
+      <c r="I7" s="95">
         <v>250</v>
       </c>
       <c r="J7" s="5"/>
@@ -8086,10 +8934,10 @@
       <c r="C8" s="4">
         <v>44167</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -8099,7 +8947,7 @@
         <v>235</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="87">
+      <c r="I8" s="95">
         <v>350</v>
       </c>
       <c r="J8" s="5"/>
@@ -8111,12 +8959,12 @@
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="87"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="11">
@@ -8128,10 +8976,10 @@
       <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>101</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -8141,7 +8989,7 @@
         <v>115</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="87">
+      <c r="I10" s="95">
         <v>200</v>
       </c>
       <c r="J10" s="5"/>
@@ -8153,12 +9001,12 @@
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="87"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="11">
@@ -8170,10 +9018,10 @@
       <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -8183,7 +9031,7 @@
         <v>120</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="87">
+      <c r="I12" s="95">
         <v>250</v>
       </c>
       <c r="J12" s="5"/>
@@ -8201,7 +9049,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="34">
+      <c r="J13" s="96">
         <f>SUM(I7:I12)</f>
         <v>1050</v>
       </c>
@@ -8237,13 +9085,93 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="J15" s="91">
         <v>50</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="5">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>50</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <f>(I16-G16)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>43833</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5">
+        <v>160</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>300</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <f>(I17-G17)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="91">
+        <v>400</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/account/accounts.xlsx
+++ b/account/accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="860" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="860" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="245">
   <si>
     <t>Model</t>
   </si>
@@ -137,9 +137,6 @@
     <t>unpaid</t>
   </si>
   <si>
-    <t>Infinix x532</t>
-  </si>
-  <si>
     <t>Panel</t>
   </si>
   <si>
@@ -696,6 +693,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Faster</t>
+  </si>
+  <si>
+    <t>Infinix x572</t>
+  </si>
+  <si>
+    <t>206 Nokia Sim Jack</t>
+  </si>
+  <si>
+    <t>Sim Jack</t>
+  </si>
+  <si>
+    <t>15 pin f1100 LCD 2.4</t>
+  </si>
+  <si>
+    <t>cs1+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass </t>
+  </si>
+  <si>
+    <t>Faster Charger 1.5A</t>
+  </si>
+  <si>
+    <t>0-3 Cable</t>
+  </si>
+  <si>
+    <t>101 lcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7000 </t>
+  </si>
+  <si>
+    <t>7 Days Handfree</t>
+  </si>
+  <si>
+    <t>8600 CJ</t>
+  </si>
+  <si>
+    <t>E4 Finger Panel</t>
+  </si>
+  <si>
+    <t>Moto LED Z2</t>
+  </si>
+  <si>
+    <t>J7 ORIGINAL LED</t>
+  </si>
+  <si>
+    <t>Iphone 6 ORIGINAL</t>
+  </si>
+  <si>
+    <t>LG G Pro</t>
+  </si>
+  <si>
+    <t>Note 3 TFT</t>
+  </si>
+  <si>
+    <t>Amazone</t>
+  </si>
+  <si>
+    <t>Ultra Max</t>
+  </si>
+  <si>
+    <t>A37 Original Flex</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>Nokia 2 Panel</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Glass  E4</t>
   </si>
 </sst>
 </file>
@@ -877,7 +949,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,6 +1013,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,6 +1268,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1208,10 +1290,7 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,47 +1718,47 @@
     <row r="2" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C2" s="40"/>
       <c r="D2" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="40"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="K2" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>141</v>
-      </c>
       <c r="D3" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="9"/>
       <c r="I3" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>118</v>
       </c>
       <c r="M3" s="43" t="s">
         <v>30</v>
@@ -1688,16 +1767,16 @@
         <v>1</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1705,10 +1784,10 @@
         <v>44045</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="58">
         <v>20040</v>
@@ -1721,13 +1800,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="38">
         <v>2.4</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M4" s="38">
         <v>40</v>
@@ -1736,7 +1815,7 @@
         <v>19</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" s="38">
         <v>300</v>
@@ -1752,10 +1831,10 @@
         <v>44045</v>
       </c>
       <c r="C5" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>137</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>138</v>
       </c>
       <c r="E5" s="39">
         <v>7630</v>
@@ -1768,13 +1847,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="38">
         <v>2.8</v>
       </c>
       <c r="L5" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M5" s="38">
         <v>8</v>
@@ -1783,7 +1862,7 @@
         <v>19</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P5" s="38">
         <v>400</v>
@@ -1799,10 +1878,10 @@
         <v>44045</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="39">
         <v>8610</v>
@@ -1838,7 +1917,7 @@
       <c r="G7" s="9"/>
       <c r="I7" s="39"/>
       <c r="J7" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="59"/>
@@ -1846,10 +1925,10 @@
         <v>10</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P7" s="37"/>
       <c r="Q7" s="57">
@@ -1880,7 +1959,7 @@
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
       <c r="D9" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1890,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="J9" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>86</v>
-      </c>
       <c r="L9" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9" s="39">
         <v>1</v>
@@ -1905,7 +1984,7 @@
         <v>17</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P9" s="39"/>
       <c r="Q9" s="45">
@@ -1916,19 +1995,19 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>141</v>
-      </c>
       <c r="D10" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
@@ -1936,13 +2015,13 @@
         <v>4</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" s="39">
         <v>1</v>
@@ -1951,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="39"/>
       <c r="Q10" s="45">
@@ -1965,10 +2044,10 @@
         <v>44045</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="39">
         <v>500</v>
@@ -1995,10 +2074,10 @@
         <v>44045</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="39">
         <v>1050</v>
@@ -2011,13 +2090,13 @@
         <v>5</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="39">
         <v>1</v>
@@ -2026,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="45">
@@ -2040,10 +2119,10 @@
         <v>44045</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" s="39">
         <v>300</v>
@@ -2056,13 +2135,13 @@
         <v>6</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M13" s="39">
         <v>1</v>
@@ -2071,7 +2150,7 @@
         <v>19</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="39"/>
       <c r="Q13" s="45">
@@ -2090,13 +2169,13 @@
         <v>7</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L14" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14" s="39">
         <v>1</v>
@@ -2105,7 +2184,7 @@
         <v>19</v>
       </c>
       <c r="O14" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="39"/>
       <c r="Q14" s="45">
@@ -2119,13 +2198,13 @@
         <v>8</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M15" s="39">
         <v>1</v>
@@ -2134,7 +2213,7 @@
         <v>19</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P15" s="39"/>
       <c r="Q15" s="45">
@@ -2148,13 +2227,13 @@
         <v>9</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="59" t="s">
         <v>129</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>130</v>
       </c>
       <c r="M16" s="39">
         <v>1</v>
@@ -2163,7 +2242,7 @@
         <v>17</v>
       </c>
       <c r="O16" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P16" s="39"/>
       <c r="Q16" s="39">
@@ -2177,13 +2256,13 @@
         <v>10</v>
       </c>
       <c r="J17" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M17" s="39">
         <v>1</v>
@@ -2192,7 +2271,7 @@
         <v>17</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -2204,13 +2283,13 @@
         <v>11</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M18" s="63">
         <v>3</v>
@@ -2219,7 +2298,7 @@
         <v>17</v>
       </c>
       <c r="O18" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P18" s="39">
         <v>1700</v>
@@ -2275,25 +2354,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
+      <c r="E2" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>117</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>118</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>30</v>
@@ -2302,16 +2381,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="51" t="s">
         <v>41</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -2319,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3">
         <v>2.4</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
@@ -2334,7 +2413,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="3">
         <v>300</v>
@@ -2349,13 +2428,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3">
         <v>2.8</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3">
         <v>8</v>
@@ -2364,7 +2443,7 @@
         <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="3">
         <v>400</v>
@@ -2389,7 +2468,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="33"/>
@@ -2397,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="30">
         <v>11530</v>
@@ -2424,13 +2503,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="E10" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -2439,7 +2518,7 @@
         <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="31">
@@ -2452,13 +2531,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -2467,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="31">
@@ -2492,13 +2571,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
@@ -2507,7 +2586,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="31">
@@ -2520,13 +2599,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -2535,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="31">
@@ -2549,13 +2628,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="11">
         <v>1</v>
@@ -2564,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="31">
@@ -2578,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -2593,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="31">
@@ -2606,13 +2685,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="F17" s="11">
         <v>1</v>
@@ -2621,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5">
@@ -2634,13 +2713,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -2649,7 +2728,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2660,13 +2739,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="24">
         <v>3</v>
@@ -2675,7 +2754,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I19" s="25">
         <v>1700</v>
@@ -2703,13 +2782,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="65" t="s">
         <v>129</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>130</v>
       </c>
       <c r="F21" s="65">
         <v>1</v>
@@ -2718,7 +2797,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="66">
         <v>1100</v>
@@ -2734,13 +2813,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="65">
         <v>1</v>
@@ -2749,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="66">
         <v>2500</v>
@@ -2763,13 +2842,13 @@
         <v>14</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="84">
         <v>1</v>
@@ -2778,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" s="84">
         <v>3000</v>
@@ -2830,10 +2909,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="103"/>
+      <c r="E5" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="107"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -2846,13 +2925,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -2867,15 +2946,15 @@
         <v>32</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -2884,7 +2963,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="5">
         <v>980</v>
@@ -2902,7 +2981,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2930,18 +3009,18 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -2958,13 +3037,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -2976,10 +3055,10 @@
         <v>6</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3028,7 +3107,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
@@ -3063,10 +3142,10 @@
         <v>30</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -3078,15 +3157,15 @@
         <v>6</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="18">
         <v>1</v>
@@ -3109,7 +3188,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -3122,10 +3201,10 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="M24" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N24" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -3140,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25" s="5">
         <v>1350</v>
@@ -3166,11 +3245,11 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
+      <c r="D28" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
       <c r="M28" s="5">
         <v>3400</v>
       </c>
@@ -3197,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>3</v>
@@ -3212,7 +3291,7 @@
         <v>32</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M30" s="5">
         <f>SUM(M25:M29)</f>
@@ -3228,7 +3307,7 @@
         <v>44106</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>17</v>
@@ -3250,7 +3329,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3287,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>3</v>
@@ -3302,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -3310,10 +3389,10 @@
         <v>44106</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E38" s="5">
         <v>45</v>
@@ -3354,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J40" s="5"/>
     </row>
@@ -3391,13 +3470,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="8"/>
@@ -3410,7 +3489,7 @@
     </row>
     <row r="3" spans="2:13" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>5</v>
@@ -3422,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="51" t="s">
         <v>3</v>
@@ -3434,7 +3513,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -3579,7 +3658,7 @@
         <v>44167</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
@@ -3605,10 +3684,10 @@
         <v>44167</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="6">
         <v>200</v>
@@ -3631,10 +3710,10 @@
         <v>44167</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="6">
         <v>70</v>
@@ -3668,13 +3747,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="6">
         <v>7</v>
@@ -3697,13 +3776,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F16" s="6">
         <v>60</v>
@@ -3740,10 +3819,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>19</v>
@@ -3769,10 +3848,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>21</v>
@@ -3809,13 +3888,13 @@
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6">
         <v>25</v>
@@ -3835,13 +3914,13 @@
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="6">
         <v>25</v>
@@ -3861,13 +3940,13 @@
         <v>13</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="44">
         <v>220</v>
@@ -3903,13 +3982,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F25" s="6">
         <v>90</v>
@@ -3931,10 +4010,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>15</v>
@@ -3975,13 +4054,13 @@
         <v>16</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="6">
         <v>100</v>
@@ -3998,7 +4077,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -4006,13 +4085,13 @@
         <v>17</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="6">
         <v>20</v>
@@ -4032,13 +4111,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="6">
         <v>90</v>
@@ -4072,10 +4151,10 @@
         <v>19</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>15</v>
@@ -4098,10 +4177,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>21</v>
@@ -4141,7 +4220,7 @@
     </row>
     <row r="35" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>5</v>
@@ -4153,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="51" t="s">
         <v>3</v>
@@ -4165,7 +4244,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -4173,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>17</v>
@@ -4203,13 +4282,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="F37" s="6">
         <v>130</v>
@@ -4232,10 +4311,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>21</v>
@@ -4297,7 +4376,7 @@
     </row>
     <row r="44" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>5</v>
@@ -4309,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" s="51" t="s">
         <v>3</v>
@@ -4321,7 +4400,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -4329,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>17</v>
@@ -4359,13 +4438,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="6">
         <v>80</v>
@@ -4389,10 +4468,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>21</v>
@@ -4415,13 +4494,13 @@
         <v>4</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F48" s="5">
         <v>250</v>
@@ -4462,7 +4541,7 @@
     </row>
     <row r="51" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="51" t="s">
         <v>5</v>
@@ -4474,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" s="51" t="s">
         <v>3</v>
@@ -4486,7 +4565,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -4494,10 +4573,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>31</v>
@@ -4536,7 +4615,7 @@
     </row>
     <row r="55" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="51" t="s">
         <v>5</v>
@@ -4548,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G55" s="51" t="s">
         <v>3</v>
@@ -4560,7 +4639,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -4568,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -4580,7 +4659,7 @@
     </row>
     <row r="58" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="51" t="s">
         <v>5</v>
@@ -4592,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" s="51" t="s">
         <v>3</v>
@@ -4604,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="J58" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -4612,10 +4691,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>17</v>
@@ -4633,7 +4712,7 @@
         <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -4641,13 +4720,13 @@
         <v>2</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F60" s="6">
         <v>30</v>
@@ -4662,7 +4741,7 @@
         <v>70</v>
       </c>
       <c r="K60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -4670,13 +4749,13 @@
         <v>3</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F61" s="6">
         <v>185</v>
@@ -4691,7 +4770,7 @@
         <v>115</v>
       </c>
       <c r="K61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -4699,13 +4778,13 @@
         <v>4</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62" s="6">
         <v>1050</v>
@@ -4720,7 +4799,7 @@
         <v>800</v>
       </c>
       <c r="K62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -4743,7 +4822,7 @@
     </row>
     <row r="66" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>5</v>
@@ -4755,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G66" s="51" t="s">
         <v>3</v>
@@ -4767,7 +4846,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -4775,10 +4854,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>15</v>
@@ -4801,10 +4880,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>19</v>
@@ -4822,7 +4901,7 @@
         <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -4845,7 +4924,7 @@
     </row>
     <row r="72" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="51" t="s">
         <v>5</v>
@@ -4857,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G72" s="51" t="s">
         <v>3</v>
@@ -4869,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="J72" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -4877,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -4892,7 +4971,7 @@
     </row>
     <row r="75" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="51" t="s">
         <v>5</v>
@@ -4904,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G75" s="51" t="s">
         <v>3</v>
@@ -4916,7 +4995,7 @@
         <v>6</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -4924,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="11"/>
@@ -4948,13 +5027,13 @@
         <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -4969,13 +5048,13 @@
         <v>3</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -5001,7 +5080,7 @@
     </row>
     <row r="81" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="51" t="s">
         <v>5</v>
@@ -5013,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G81" s="51" t="s">
         <v>3</v>
@@ -5025,14 +5104,14 @@
         <v>6</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <v>1</v>
       </c>
-      <c r="C82" s="108">
+      <c r="C82" s="102">
         <v>43833</v>
       </c>
       <c r="D82" s="11" t="s">
@@ -5054,14 +5133,14 @@
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="108">
+      <c r="C83" s="102">
         <v>43833</v>
       </c>
       <c r="D83" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="H83">
         <v>150</v>
@@ -5096,11 +5175,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="D2" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -5113,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -5128,7 +5207,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -5136,7 +5215,7 @@
         <v>44106</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -5158,7 +5237,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5184,7 +5263,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5">
         <v>206</v>
@@ -5236,10 +5315,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C1:R121"/>
+  <dimension ref="C1:R153"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q151" sqref="Q151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,15 +5337,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -5288,7 +5367,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="73" t="s">
         <v>3</v>
@@ -5300,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="73" t="s">
         <v>32</v>
@@ -5536,13 +5615,13 @@
         <v>44106</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="65">
         <v>1</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="65" t="s">
         <v>9</v>
@@ -5556,7 +5635,7 @@
       <c r="J12" s="65">
         <v>130</v>
       </c>
-      <c r="K12" s="68"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="65">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5576,13 +5655,13 @@
       <c r="J13" s="65">
         <v>0</v>
       </c>
-      <c r="K13" s="68"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M13" s="65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
@@ -5606,7 +5685,7 @@
         <v>44137</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="65">
         <v>1</v>
@@ -5638,7 +5717,7 @@
         <v>44137</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="65">
         <v>1</v>
@@ -5647,7 +5726,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="65">
         <v>120</v>
@@ -5670,7 +5749,7 @@
         <v>44137</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="65">
         <v>1</v>
@@ -5679,7 +5758,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="65">
         <v>235</v>
@@ -5702,7 +5781,7 @@
         <v>44137</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="65">
         <v>1</v>
@@ -5711,7 +5790,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="65">
         <v>1400</v>
@@ -5749,10 +5828,10 @@
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="65">
         <v>1</v>
@@ -5761,7 +5840,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="65">
         <v>130</v>
@@ -5797,10 +5876,10 @@
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="65" t="s">
         <v>72</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>73</v>
       </c>
       <c r="E22" s="65">
         <v>1</v>
@@ -5809,7 +5888,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="65">
         <v>1900</v>
@@ -5829,10 +5908,10 @@
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="65">
         <v>1</v>
@@ -5841,7 +5920,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="65">
         <v>195</v>
@@ -5861,10 +5940,10 @@
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E24" s="65">
         <v>1</v>
@@ -5873,7 +5952,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="65">
         <v>225</v>
@@ -5909,10 +5988,10 @@
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C26" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="65">
         <v>1</v>
@@ -5921,7 +6000,7 @@
         <v>19</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="65">
         <v>120</v>
@@ -5941,10 +6020,10 @@
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C27" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="65">
         <v>1</v>
@@ -5953,7 +6032,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="65">
         <v>170</v>
@@ -5973,10 +6052,10 @@
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C28" s="65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="65">
         <v>1</v>
@@ -5985,7 +6064,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="65">
         <v>1150</v>
@@ -6021,10 +6100,10 @@
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C30" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="65">
         <v>1</v>
@@ -6033,7 +6112,7 @@
         <v>19</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="65">
         <v>235</v>
@@ -6053,10 +6132,10 @@
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C31" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="65">
         <v>1</v>
@@ -6065,7 +6144,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="65">
         <v>1150</v>
@@ -6151,10 +6230,10 @@
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C36" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="65" t="s">
         <v>85</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>86</v>
       </c>
       <c r="E36" s="65">
         <v>1</v>
@@ -6163,7 +6242,7 @@
         <v>17</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="65"/>
       <c r="I36" s="65">
@@ -6179,19 +6258,19 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C37" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="65">
         <v>1</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="65">
         <v>1250</v>
@@ -6209,10 +6288,10 @@
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C38" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="65">
         <v>1</v>
@@ -6221,7 +6300,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="65"/>
       <c r="I38" s="65">
@@ -6269,10 +6348,10 @@
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C41" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="65">
         <v>1</v>
@@ -6281,7 +6360,7 @@
         <v>17</v>
       </c>
       <c r="G41" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="65">
         <v>1900</v>
@@ -6301,19 +6380,19 @@
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C42" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="65">
+        <v>1</v>
+      </c>
+      <c r="F42" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="65">
-        <v>1</v>
-      </c>
-      <c r="F42" s="65" t="s">
-        <v>95</v>
-      </c>
       <c r="G42" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" s="65">
         <v>100</v>
@@ -6333,19 +6412,19 @@
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C43" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="65">
         <v>10</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H43" s="65">
         <v>30</v>
@@ -6365,19 +6444,19 @@
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C44" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" s="65">
         <v>5</v>
       </c>
       <c r="F44" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G44" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H44" s="65">
         <v>50</v>
@@ -6397,7 +6476,7 @@
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C45" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="65" t="s">
         <v>18</v>
@@ -6409,7 +6488,7 @@
         <v>19</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H45" s="65">
         <v>153</v>
@@ -6447,10 +6526,10 @@
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C47" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" s="65">
         <v>1</v>
@@ -6459,7 +6538,7 @@
         <v>19</v>
       </c>
       <c r="G47" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H47" s="65">
         <v>280</v>
@@ -6479,19 +6558,19 @@
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C48" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="65">
         <v>1</v>
       </c>
       <c r="F48" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H48" s="65">
         <v>15</v>
@@ -6511,15 +6590,15 @@
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C49" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="65"/>
       <c r="F49" s="65"/>
       <c r="G49" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H49" s="65"/>
       <c r="I49" s="65">
@@ -6537,10 +6616,10 @@
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C50" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50" s="65">
         <v>1</v>
@@ -6549,7 +6628,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H50" s="65"/>
       <c r="I50" s="65">
@@ -6565,10 +6644,10 @@
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C51" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="65">
         <v>1</v>
@@ -6577,7 +6656,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H51" s="65"/>
       <c r="I51" s="65">
@@ -6593,10 +6672,10 @@
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C52" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="65">
         <v>1</v>
@@ -6605,7 +6684,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H52" s="65"/>
       <c r="I52" s="65">
@@ -6621,10 +6700,10 @@
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C53" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" s="65">
         <v>1</v>
@@ -6633,7 +6712,7 @@
         <v>19</v>
       </c>
       <c r="G53" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H53" s="65"/>
       <c r="I53" s="65">
@@ -6667,10 +6746,10 @@
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C55" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" s="65"/>
       <c r="F55" s="65"/>
@@ -6707,10 +6786,10 @@
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C57" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" s="65">
         <v>1</v>
@@ -6719,7 +6798,7 @@
         <v>17</v>
       </c>
       <c r="G57" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H57" s="65"/>
       <c r="I57" s="66">
@@ -6762,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="H60" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" s="38" t="s">
         <v>3</v>
@@ -6774,7 +6853,7 @@
         <v>6</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>32</v>
@@ -6782,10 +6861,10 @@
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C61" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E61" s="65">
         <v>1</v>
@@ -6794,7 +6873,7 @@
         <v>17</v>
       </c>
       <c r="G61" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H61" s="65"/>
       <c r="I61" s="66">
@@ -6810,10 +6889,10 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" s="65">
         <v>1</v>
@@ -6822,7 +6901,7 @@
         <v>19</v>
       </c>
       <c r="G62" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H62" s="65"/>
       <c r="I62" s="66">
@@ -6863,10 +6942,10 @@
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C65" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D65" s="65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" s="65">
         <v>1</v>
@@ -6875,7 +6954,7 @@
         <v>19</v>
       </c>
       <c r="G65" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H65" s="65">
         <v>120</v>
@@ -6893,19 +6972,19 @@
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C66" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E66" s="65">
         <v>1</v>
       </c>
       <c r="F66" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H66" s="65"/>
       <c r="I66" s="66"/>
@@ -6921,19 +7000,19 @@
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E67" s="65">
         <v>1</v>
       </c>
       <c r="F67" s="65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" s="65">
         <v>1050</v>
@@ -6995,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I70" s="38" t="s">
         <v>3</v>
@@ -7007,7 +7086,7 @@
         <v>6</v>
       </c>
       <c r="L70" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M70" s="39" t="s">
         <v>32</v>
@@ -7015,10 +7094,10 @@
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C71" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" s="65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E71" s="65">
         <v>1</v>
@@ -7027,7 +7106,7 @@
         <v>17</v>
       </c>
       <c r="G71" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H71" s="65">
         <v>210</v>
@@ -7045,10 +7124,10 @@
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C72" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="65">
         <v>1</v>
@@ -7057,7 +7136,7 @@
         <v>17</v>
       </c>
       <c r="G72" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H72" s="65">
         <v>1450</v>
@@ -7098,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I74" s="38" t="s">
         <v>3</v>
@@ -7110,7 +7189,7 @@
         <v>6</v>
       </c>
       <c r="L74" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M74" s="39" t="s">
         <v>32</v>
@@ -7118,17 +7197,17 @@
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C75" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E75" s="84">
         <v>1</v>
       </c>
       <c r="F75" s="84"/>
       <c r="G75" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H75" s="84">
         <v>2400</v>
@@ -7146,17 +7225,17 @@
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C76" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E76" s="84">
         <v>1</v>
       </c>
       <c r="F76" s="84"/>
       <c r="G76" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H76" s="84">
         <v>210</v>
@@ -7174,7 +7253,7 @@
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C77" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" s="86">
         <v>8600</v>
@@ -7183,10 +7262,10 @@
         <v>5</v>
       </c>
       <c r="F77" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G77" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H77" s="84">
         <v>15</v>
@@ -7204,19 +7283,19 @@
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C78" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E78" s="84">
         <v>2</v>
       </c>
       <c r="F78" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G78" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H78" s="84">
         <v>40</v>
@@ -7234,7 +7313,7 @@
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C79" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D79" s="86">
         <v>2.8</v>
@@ -7246,7 +7325,7 @@
         <v>19</v>
       </c>
       <c r="G79" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H79" s="84">
         <v>350</v>
@@ -7280,19 +7359,19 @@
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C81" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="84" t="s">
         <v>166</v>
-      </c>
-      <c r="D81" s="84" t="s">
-        <v>167</v>
       </c>
       <c r="E81" s="84">
         <v>10</v>
       </c>
       <c r="F81" s="84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G81" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H81" s="84">
         <v>30</v>
@@ -7310,19 +7389,19 @@
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C82" s="84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E82" s="84">
         <v>1</v>
       </c>
       <c r="F82" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G82" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H82" s="84">
         <v>130</v>
@@ -7355,19 +7434,19 @@
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C84" s="84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E84" s="84">
         <v>1</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H84" s="84"/>
       <c r="I84" s="84">
@@ -7404,7 +7483,7 @@
         <v>2</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I87" s="38" t="s">
         <v>3</v>
@@ -7416,7 +7495,7 @@
         <v>6</v>
       </c>
       <c r="L87" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M87" s="39" t="s">
         <v>32</v>
@@ -7424,10 +7503,10 @@
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C88" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="84" t="s">
         <v>178</v>
-      </c>
-      <c r="D88" s="84" t="s">
-        <v>179</v>
       </c>
       <c r="E88" s="84">
         <v>1</v>
@@ -7436,7 +7515,7 @@
         <v>15</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H88" s="84">
         <v>310</v>
@@ -7454,19 +7533,19 @@
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C89" s="84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D89" s="84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E89" s="84">
         <v>1</v>
       </c>
       <c r="F89" s="84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G89" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H89" s="84">
         <v>650</v>
@@ -7484,7 +7563,7 @@
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C90" s="84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D90" s="90">
         <v>8600</v>
@@ -7493,10 +7572,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H90" s="84">
         <v>3</v>
@@ -7538,7 +7617,7 @@
         <v>2</v>
       </c>
       <c r="H93" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I93" s="38" t="s">
         <v>3</v>
@@ -7550,7 +7629,7 @@
         <v>6</v>
       </c>
       <c r="L93" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M93" s="39" t="s">
         <v>32</v>
@@ -7558,10 +7637,10 @@
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C94" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E94" s="84">
         <v>1</v>
@@ -7570,7 +7649,7 @@
         <v>17</v>
       </c>
       <c r="G94" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H94" s="84"/>
       <c r="I94" s="84">
@@ -7583,10 +7662,10 @@
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C95" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="84" t="s">
         <v>183</v>
-      </c>
-      <c r="D95" s="84" t="s">
-        <v>184</v>
       </c>
       <c r="E95" s="84">
         <v>1</v>
@@ -7595,7 +7674,7 @@
         <v>17</v>
       </c>
       <c r="G95" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H95" s="84"/>
       <c r="I95" s="84">
@@ -7608,10 +7687,10 @@
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C96" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D96" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E96" s="84">
         <v>1</v>
@@ -7620,7 +7699,7 @@
         <v>17</v>
       </c>
       <c r="G96" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H96" s="84"/>
       <c r="I96" s="84">
@@ -7633,19 +7712,19 @@
     </row>
     <row r="97" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C97" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D97" s="65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E97" s="65">
         <v>1</v>
       </c>
       <c r="F97" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G97" s="65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H97" s="76">
         <v>150</v>
@@ -7660,19 +7739,19 @@
     </row>
     <row r="98" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C98" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E98" s="65">
+        <v>1</v>
+      </c>
+      <c r="F98" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="E98" s="65">
-        <v>1</v>
-      </c>
-      <c r="F98" s="65" t="s">
+      <c r="G98" s="65" t="s">
         <v>192</v>
-      </c>
-      <c r="G98" s="65" t="s">
-        <v>193</v>
       </c>
       <c r="H98" s="76">
         <v>400</v>
@@ -7687,10 +7766,10 @@
     </row>
     <row r="99" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C99" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D99" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E99" s="65">
         <v>1</v>
@@ -7699,7 +7778,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H99" s="76">
         <v>1</v>
@@ -7714,10 +7793,10 @@
     </row>
     <row r="100" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C100" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E100" s="65">
         <v>1</v>
@@ -7726,7 +7805,7 @@
         <v>17</v>
       </c>
       <c r="G100" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H100" s="76">
         <v>1500</v>
@@ -7741,16 +7820,16 @@
     </row>
     <row r="101" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C101" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101" s="65">
         <v>1</v>
       </c>
       <c r="F101" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G101" s="65"/>
       <c r="H101" s="76"/>
@@ -7803,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="H105" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I105" s="38" t="s">
         <v>3</v>
@@ -7815,7 +7894,7 @@
         <v>6</v>
       </c>
       <c r="L105" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M105" s="39" t="s">
         <v>32</v>
@@ -7823,10 +7902,10 @@
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C106" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="65" t="s">
         <v>199</v>
-      </c>
-      <c r="D106" s="65" t="s">
-        <v>200</v>
       </c>
       <c r="E106" s="65">
         <v>1</v>
@@ -7835,7 +7914,7 @@
         <v>8</v>
       </c>
       <c r="G106" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H106" s="76">
         <v>119</v>
@@ -7850,10 +7929,10 @@
     </row>
     <row r="107" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C107" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E107" s="65">
         <v>1</v>
@@ -7862,7 +7941,7 @@
         <v>17</v>
       </c>
       <c r="G107" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H107" s="76">
         <v>1500</v>
@@ -7877,19 +7956,19 @@
     </row>
     <row r="108" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C108" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D108" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="65">
+        <v>1</v>
+      </c>
+      <c r="F108" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="E108" s="65">
-        <v>1</v>
-      </c>
-      <c r="F108" s="65" t="s">
-        <v>206</v>
-      </c>
       <c r="G108" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H108" s="76">
         <v>450</v>
@@ -7904,7 +7983,7 @@
     </row>
     <row r="109" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C109" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D109" s="77">
         <v>8600</v>
@@ -7913,10 +7992,10 @@
         <v>4</v>
       </c>
       <c r="F109" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G109" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H109" s="76">
         <v>12</v>
@@ -7931,19 +8010,19 @@
     </row>
     <row r="110" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C110" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D110" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E110" s="65">
         <v>1</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G110" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H110" s="76">
         <v>100</v>
@@ -7958,19 +8037,19 @@
     </row>
     <row r="111" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C111" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E111" s="65">
         <v>1</v>
       </c>
       <c r="F111" s="65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G111" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H111" s="76">
         <v>10</v>
@@ -7985,10 +8064,10 @@
     </row>
     <row r="112" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C112" s="84"/>
-      <c r="D112" s="105"/>
+      <c r="D112" s="99"/>
       <c r="E112" s="65"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="105"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
       <c r="H112" s="76"/>
       <c r="I112" s="65"/>
       <c r="J112" s="65">
@@ -8000,7 +8079,7 @@
       <c r="M112" s="65"/>
     </row>
     <row r="113" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K113" s="107">
+      <c r="K113" s="101">
         <v>7970</v>
       </c>
     </row>
@@ -8021,7 +8100,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I115" s="38" t="s">
         <v>3</v>
@@ -8033,25 +8112,25 @@
         <v>6</v>
       </c>
       <c r="L115" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M115" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="116" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C116" s="106">
+      <c r="C116" s="100">
         <v>43833</v>
       </c>
       <c r="D116" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E116" s="65">
         <v>1</v>
       </c>
       <c r="F116" s="65"/>
       <c r="G116" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H116" s="76">
         <v>450</v>
@@ -8065,18 +8144,18 @@
       <c r="M116" s="65"/>
     </row>
     <row r="117" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C117" s="106">
+      <c r="C117" s="100">
         <v>43833</v>
       </c>
       <c r="D117" s="65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E117" s="65">
         <v>1</v>
       </c>
       <c r="F117" s="65"/>
       <c r="G117" s="65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H117" s="76">
         <v>1100</v>
@@ -8090,20 +8169,20 @@
       <c r="M117" s="65"/>
     </row>
     <row r="118" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C118" s="106">
+      <c r="C118" s="100">
         <v>43833</v>
       </c>
       <c r="D118" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E118" s="65">
+        <v>1</v>
+      </c>
+      <c r="F118" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="E118" s="65">
-        <v>1</v>
-      </c>
-      <c r="F118" s="65" t="s">
+      <c r="G118" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="G118" s="65" t="s">
-        <v>211</v>
       </c>
       <c r="H118" s="76">
         <v>100</v>
@@ -8117,20 +8196,20 @@
       <c r="M118" s="65"/>
     </row>
     <row r="119" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C119" s="106">
+      <c r="C119" s="100">
         <v>43833</v>
       </c>
       <c r="D119" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E119" s="65">
         <v>5</v>
       </c>
       <c r="F119" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G119" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="G119" s="65" t="s">
-        <v>211</v>
       </c>
       <c r="H119" s="76">
         <v>175</v>
@@ -8145,10 +8224,10 @@
     </row>
     <row r="120" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C120" s="84"/>
-      <c r="D120" s="105"/>
+      <c r="D120" s="65"/>
       <c r="E120" s="65"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
       <c r="H120" s="76"/>
       <c r="I120" s="65"/>
       <c r="J120" s="65">
@@ -8162,6 +8241,698 @@
     <row r="121" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K121" s="83">
         <v>10020</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C123" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J123" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L123" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M123" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C124" s="100">
+        <v>43864</v>
+      </c>
+      <c r="D124" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E124" s="65">
+        <v>1</v>
+      </c>
+      <c r="F124" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="G124" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="76">
+        <v>50</v>
+      </c>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65">
+        <v>80</v>
+      </c>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
+      <c r="M124" s="65"/>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C125" s="100">
+        <v>43864</v>
+      </c>
+      <c r="D125" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E125" s="65">
+        <v>1</v>
+      </c>
+      <c r="F125" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="76">
+        <v>260</v>
+      </c>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65">
+        <v>300</v>
+      </c>
+      <c r="K125" s="65"/>
+      <c r="L125" s="65"/>
+      <c r="M125" s="65"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C126" s="100">
+        <v>43864</v>
+      </c>
+      <c r="D126" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" s="65">
+        <v>1</v>
+      </c>
+      <c r="F126" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H126" s="76">
+        <v>1950</v>
+      </c>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65">
+        <v>2000</v>
+      </c>
+      <c r="K126" s="65"/>
+      <c r="L126" s="65"/>
+      <c r="M126" s="65"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65">
+        <f>SUM(J124:J126)</f>
+        <v>2380</v>
+      </c>
+      <c r="K127" s="65"/>
+      <c r="L127" s="65"/>
+      <c r="M127" s="65"/>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K128" s="83">
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C130" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J130" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K130" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L130" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M130" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C131" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D131" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="65">
+        <v>1</v>
+      </c>
+      <c r="F131" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="G131" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H131" s="76">
+        <v>35</v>
+      </c>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65">
+        <v>100</v>
+      </c>
+      <c r="K131" s="65"/>
+      <c r="L131" s="65"/>
+      <c r="M131" s="65"/>
+    </row>
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C132" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D132" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="E132" s="65">
+        <v>1</v>
+      </c>
+      <c r="F132" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G132" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H132" s="76">
+        <v>150</v>
+      </c>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65">
+        <v>250</v>
+      </c>
+      <c r="K132" s="65"/>
+      <c r="L132" s="65"/>
+      <c r="M132" s="65"/>
+    </row>
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C133" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D133" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" s="65">
+        <v>1</v>
+      </c>
+      <c r="F133" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G133" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" s="76">
+        <v>130</v>
+      </c>
+      <c r="I133" s="65"/>
+      <c r="J133" s="65">
+        <v>150</v>
+      </c>
+      <c r="K133" s="65"/>
+      <c r="L133" s="65"/>
+      <c r="M133" s="65"/>
+    </row>
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C134" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D134" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="E134" s="65">
+        <v>1</v>
+      </c>
+      <c r="F134" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H134" s="76">
+        <v>120</v>
+      </c>
+      <c r="I134" s="65"/>
+      <c r="J134" s="65">
+        <v>200</v>
+      </c>
+      <c r="K134" s="65"/>
+      <c r="L134" s="65"/>
+      <c r="M134" s="65"/>
+    </row>
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C135" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D135" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E135" s="65">
+        <v>1</v>
+      </c>
+      <c r="F135" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G135" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H135" s="76">
+        <v>270</v>
+      </c>
+      <c r="I135" s="65"/>
+      <c r="J135" s="65">
+        <v>300</v>
+      </c>
+      <c r="K135" s="65"/>
+      <c r="L135" s="65"/>
+      <c r="M135" s="65"/>
+    </row>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C136" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E136" s="65">
+        <v>1</v>
+      </c>
+      <c r="F136" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G136" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" s="76">
+        <v>100</v>
+      </c>
+      <c r="I136" s="65"/>
+      <c r="J136" s="65">
+        <v>150</v>
+      </c>
+      <c r="K136" s="65"/>
+      <c r="L136" s="65"/>
+      <c r="M136" s="65"/>
+    </row>
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C137" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D137" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" s="65">
+        <v>6</v>
+      </c>
+      <c r="F137" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G137" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H137" s="76">
+        <v>18</v>
+      </c>
+      <c r="I137" s="65"/>
+      <c r="J137" s="65">
+        <v>30</v>
+      </c>
+      <c r="K137" s="65"/>
+      <c r="L137" s="65"/>
+      <c r="M137" s="65"/>
+    </row>
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C138" s="100">
+        <v>43893</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" s="65">
+        <v>1</v>
+      </c>
+      <c r="F138" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H138" s="76">
+        <v>1700</v>
+      </c>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65">
+        <v>1900</v>
+      </c>
+      <c r="K138" s="65"/>
+      <c r="L138" s="65"/>
+      <c r="M138" s="65"/>
+    </row>
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65">
+        <f>SUM(J131:J138)</f>
+        <v>3080</v>
+      </c>
+      <c r="K139" s="65"/>
+      <c r="L139" s="65"/>
+      <c r="M139" s="65"/>
+    </row>
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K140" s="83">
+        <v>15480</v>
+      </c>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C142" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H142" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J142" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K142" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L142" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M142" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C143" s="100">
+        <v>43924</v>
+      </c>
+      <c r="D143" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E143" s="65">
+        <v>1</v>
+      </c>
+      <c r="F143" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" s="76"/>
+      <c r="I143" s="65">
+        <v>4000</v>
+      </c>
+      <c r="J143" s="65"/>
+      <c r="K143" s="65"/>
+      <c r="L143" s="65"/>
+      <c r="M143" s="65"/>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C144" s="100">
+        <v>43924</v>
+      </c>
+      <c r="D144" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="E144" s="65">
+        <v>1</v>
+      </c>
+      <c r="F144" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" s="76"/>
+      <c r="I144" s="65">
+        <v>4000</v>
+      </c>
+      <c r="J144" s="65"/>
+      <c r="K144" s="65"/>
+      <c r="L144" s="65"/>
+      <c r="M144" s="65"/>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C145" s="100">
+        <v>43925</v>
+      </c>
+      <c r="D145" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="E145" s="65">
+        <v>1</v>
+      </c>
+      <c r="F145" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H145" s="76"/>
+      <c r="I145" s="65">
+        <v>1500</v>
+      </c>
+      <c r="J145" s="65"/>
+      <c r="K145" s="65"/>
+      <c r="L145" s="65"/>
+      <c r="M145" s="65"/>
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C146" s="100">
+        <v>43926</v>
+      </c>
+      <c r="D146" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146" s="65">
+        <v>1</v>
+      </c>
+      <c r="F146" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H146" s="76"/>
+      <c r="I146" s="65">
+        <v>2500</v>
+      </c>
+      <c r="J146" s="65"/>
+      <c r="K146" s="65"/>
+      <c r="L146" s="65"/>
+      <c r="M146" s="65"/>
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C147" s="100">
+        <v>43927</v>
+      </c>
+      <c r="D147" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E147" s="65">
+        <v>1</v>
+      </c>
+      <c r="F147" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H147" s="76"/>
+      <c r="I147" s="65">
+        <v>4000</v>
+      </c>
+      <c r="J147" s="65"/>
+      <c r="K147" s="65"/>
+      <c r="L147" s="65"/>
+      <c r="M147" s="65"/>
+    </row>
+    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C148" s="100">
+        <v>43928</v>
+      </c>
+      <c r="D148" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" s="65">
+        <v>1</v>
+      </c>
+      <c r="F148" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H148" s="76"/>
+      <c r="I148" s="65">
+        <v>1500</v>
+      </c>
+      <c r="J148" s="65"/>
+      <c r="K148" s="65"/>
+      <c r="L148" s="65"/>
+      <c r="M148" s="65"/>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C149" s="100">
+        <v>43929</v>
+      </c>
+      <c r="D149" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E149" s="65">
+        <v>1</v>
+      </c>
+      <c r="F149" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H149" s="76"/>
+      <c r="I149" s="65">
+        <v>3000</v>
+      </c>
+      <c r="J149" s="65"/>
+      <c r="K149" s="65"/>
+      <c r="L149" s="65"/>
+      <c r="M149" s="65"/>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C150" s="100">
+        <v>43930</v>
+      </c>
+      <c r="D150" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E150" s="65">
+        <v>1</v>
+      </c>
+      <c r="F150" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="G150" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" s="76"/>
+      <c r="I150" s="65">
+        <v>300</v>
+      </c>
+      <c r="J150" s="65"/>
+      <c r="K150" s="65"/>
+      <c r="L150" s="65"/>
+      <c r="M150" s="65"/>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C151" s="100">
+        <v>43931</v>
+      </c>
+      <c r="D151" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E151" s="65">
+        <v>2</v>
+      </c>
+      <c r="F151" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H151" s="76"/>
+      <c r="I151" s="65">
+        <v>2500</v>
+      </c>
+      <c r="J151" s="65"/>
+      <c r="K151" s="65"/>
+      <c r="L151" s="65"/>
+      <c r="M151" s="65"/>
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C152" s="100">
+        <v>43932</v>
+      </c>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="76"/>
+      <c r="I152" s="65">
+        <f>SUM(I143:I151)</f>
+        <v>23300</v>
+      </c>
+      <c r="J152" s="65"/>
+      <c r="K152" s="65"/>
+      <c r="L152" s="65"/>
+      <c r="M152" s="65"/>
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K153" s="109">
+        <v>-7820</v>
       </c>
     </row>
   </sheetData>
@@ -8208,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>3</v>
@@ -8220,27 +8991,27 @@
         <v>6</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="106">
+      <c r="C5" s="100">
         <v>43833</v>
       </c>
       <c r="D5" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="65">
+        <v>1</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>213</v>
-      </c>
-      <c r="E5" s="65">
-        <v>1</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>214</v>
       </c>
       <c r="H5" s="76">
         <v>130</v>
@@ -8271,8 +9042,8 @@
   </sheetPr>
   <dimension ref="C3:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8301,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="38" t="s">
         <v>3</v>
@@ -8313,7 +9084,7 @@
         <v>6</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="39" t="s">
         <v>32</v>
@@ -8321,19 +9092,19 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="65">
+        <v>1</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="65">
-        <v>1</v>
-      </c>
-      <c r="F4" s="65" t="s">
+      <c r="G4" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>211</v>
       </c>
       <c r="H4" s="76">
         <v>100</v>
@@ -8348,19 +9119,19 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="65">
         <v>5</v>
       </c>
       <c r="F5" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>210</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>211</v>
       </c>
       <c r="H5" s="76">
         <v>175</v>
@@ -8389,10 +9160,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8401,19 +9172,21 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="101" t="s">
+    <row r="1" spans="3:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
@@ -8421,60 +9194,67 @@
         <v>0</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M2" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>44045</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <f>(E3*H3)</f>
         <v>2300</v>
       </c>
-      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <v>44045</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -8484,16 +9264,20 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J15" si="0">(E4*H4)</f>
         <v>400</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -8501,16 +9285,20 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>44106</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="11">
         <v>2</v>
@@ -8520,16 +9308,20 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -8537,16 +9329,20 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -8555,22 +9351,26 @@
         <v>15</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5">
         <v>400</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
@@ -8579,58 +9379,70 @@
         <v>15</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
+        <v>180</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="5">
         <v>1650</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -8639,22 +9451,26 @@
         <v>17</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="5">
         <v>1550</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
@@ -8663,99 +9479,135 @@
         <v>15</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="5">
+        <v>180</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="11">
         <v>2</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1100</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="H15" s="5">
+        <v>300</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>43894</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>2750</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38">
         <f>SUM(E3:E15)</f>
         <v>15</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39">
-        <v>0</v>
-      </c>
-      <c r="I16" s="39">
-        <f>SUM(I3:I15)</f>
-        <v>8440</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="91">
-        <v>8440</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39">
+        <f>SUM(J3:J15)</f>
+        <v>8480</v>
+      </c>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="91">
+        <v>5730</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="M18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8781,14 +9633,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -8804,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>3</v>
@@ -8819,7 +9671,7 @@
         <v>32</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
@@ -8833,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6">
         <v>25</v>
@@ -8860,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="44">
         <v>3</v>
@@ -8882,7 +9734,7 @@
         <v>44137</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="18">
         <v>1</v>
@@ -8908,7 +9760,7 @@
         <v>44167</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="18">
         <v>1</v>
@@ -8935,7 +9787,7 @@
         <v>44167</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
@@ -8974,7 +9826,7 @@
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="16">
         <v>101</v>
@@ -9016,10 +9868,10 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
@@ -9061,10 +9913,10 @@
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -9093,16 +9945,16 @@
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E16" s="5">
         <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="5">
         <v>30</v>
@@ -9123,7 +9975,7 @@
         <v>43833</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>

--- a/account/accounts.xlsx
+++ b/account/accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="860" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="6" r:id="rId1"/>
@@ -32,8 +32,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="276">
   <si>
     <t>Model</t>
   </si>
@@ -768,13 +802,106 @@
   </si>
   <si>
     <t>Glass  E4</t>
+  </si>
+  <si>
+    <t>tablet touch</t>
+  </si>
+  <si>
+    <t>101 LCD</t>
+  </si>
+  <si>
+    <t>j7 Prime</t>
+  </si>
+  <si>
+    <t>j120 ogs</t>
+  </si>
+  <si>
+    <t>handfree</t>
+  </si>
+  <si>
+    <t>handfree 7 days</t>
+  </si>
+  <si>
+    <t>y17 pouch</t>
+  </si>
+  <si>
+    <t>j3 backcover</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>z3 mini</t>
+  </si>
+  <si>
+    <t>Mic</t>
+  </si>
+  <si>
+    <t>Turbo 2</t>
+  </si>
+  <si>
+    <t>Mini BlueTooth</t>
+  </si>
+  <si>
+    <t>X627 Smart 3</t>
+  </si>
+  <si>
+    <t>lal</t>
+  </si>
+  <si>
+    <t>ocean6</t>
+  </si>
+  <si>
+    <t>HF Thunder</t>
+  </si>
+  <si>
+    <t>faster battery</t>
+  </si>
+  <si>
+    <t>cash home chores</t>
+  </si>
+  <si>
+    <t>turbo lal wala</t>
+  </si>
+  <si>
+    <t>total sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance </t>
+  </si>
+  <si>
+    <t>evok power</t>
+  </si>
+  <si>
+    <t>z1 Battery</t>
+  </si>
+  <si>
+    <t>2.4 lcd</t>
+  </si>
+  <si>
+    <t>cj</t>
+  </si>
+  <si>
+    <t>j100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charger 7 days 3.4 </t>
+  </si>
+  <si>
+    <t>Infinix shu</t>
+  </si>
+  <si>
+    <t>03 Cable</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,14 +936,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -948,8 +1067,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,8 +1154,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1116,11 +1260,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1178,36 +1344,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1221,7 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1229,11 +1395,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1244,7 +1410,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1252,30 +1417,57 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1284,13 +1476,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R19"/>
+  <dimension ref="A2:R37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,6 +1899,7 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -1723,13 +1918,13 @@
       <c r="E2" s="46"/>
       <c r="F2" s="40"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="103" t="s">
+      <c r="K2" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
@@ -2323,6 +2518,99 @@
         <v>35120</v>
       </c>
       <c r="R19" s="39"/>
+    </row>
+    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H27" s="82">
+        <v>18810</v>
+      </c>
+      <c r="I27" s="88">
+        <v>6460</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H30" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H31" s="116">
+        <v>57685</v>
+      </c>
+      <c r="I31" s="116">
+        <v>12469</v>
+      </c>
+      <c r="J31" s="116">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="122">
+        <v>44045</v>
+      </c>
+      <c r="J34" s="122">
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="88">
+        <v>18810</v>
+      </c>
+      <c r="J35" s="118">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="86">
+        <v>57685</v>
+      </c>
+      <c r="J36" s="120">
+        <v>12469</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="88">
+        <f>SUM(I35:I36)</f>
+        <v>76495</v>
+      </c>
+      <c r="J37" s="118">
+        <f>SUM(J35:J36)</f>
+        <v>18929</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2354,12 +2642,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="51" t="s">
@@ -2838,40 +3126,40 @@
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>14</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="F23" s="84">
-        <v>1</v>
-      </c>
-      <c r="G23" s="84" t="s">
+      <c r="F23" s="83">
+        <v>1</v>
+      </c>
+      <c r="G23" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="84" t="s">
+      <c r="H23" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="84">
+      <c r="I23" s="83">
         <v>3000</v>
       </c>
       <c r="K23" s="27"/>
       <c r="M23" s="27"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="84"/>
+      <c r="C24" s="83"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="84"/>
+      <c r="C25" s="83"/>
       <c r="J25" s="28"/>
       <c r="L25" s="27"/>
     </row>
@@ -2909,10 +3197,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -3014,13 +3302,13 @@
       <c r="L11" s="5"/>
     </row>
     <row r="13" spans="2:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -3245,11 +3533,11 @@
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="106" t="s">
+      <c r="D28" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
       <c r="M28" s="5">
         <v>3400</v>
       </c>
@@ -3453,30 +3741,30 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:M83"/>
+  <dimension ref="B1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="B109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" s="8"/>
@@ -4171,8 +4459,14 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>20</v>
       </c>
@@ -4197,28 +4491,31 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="82">
+        <v>6660</v>
+      </c>
+      <c r="L33" s="86">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="5">
+      <c r="G34" s="39">
         <f>SUM(G4:G33)</f>
         <v>6660</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="54">
-        <f>SUM(G4:G33)</f>
-        <v>6660</v>
-      </c>
-      <c r="J34" s="88">
+      <c r="I34" s="119"/>
+      <c r="J34" s="120">
         <f>SUM(J4:J33)</f>
         <v>2265</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="51" t="s">
         <v>39</v>
       </c>
@@ -4247,7 +4544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>1</v>
       </c>
@@ -4277,7 +4574,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>2</v>
       </c>
@@ -4306,7 +4603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>3</v>
       </c>
@@ -4319,25 +4616,48 @@
       <c r="E38" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="F38" s="117">
+        <v>35</v>
+      </c>
       <c r="G38" s="6">
         <v>100</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="5">
+        <v>65</v>
+      </c>
+      <c r="K38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="39">
+        <f>SUM(G36:G38)</f>
+        <v>2050</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="118">
+        <f>SUM(J36:J38)</f>
+        <v>435</v>
+      </c>
+      <c r="K39" s="86">
+        <v>8710</v>
+      </c>
+      <c r="L39" s="86">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -4348,243 +4668,253 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="47">
-        <v>8710</v>
-      </c>
-      <c r="J42" s="47">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="51" t="s">
+    <row r="42" spans="2:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C42" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="51" t="s">
+      <c r="D42" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G42" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H42" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="51" t="s">
+      <c r="I42" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="51" t="s">
+      <c r="J42" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1800</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <f>(G43-F43)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="6">
+        <v>80</v>
+      </c>
+      <c r="G44" s="11">
+        <v>300</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <f>(G44-F44)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="84" t="s">
         <v>157</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="6">
-        <v>1050</v>
-      </c>
-      <c r="G45" s="11">
-        <v>1800</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F45" s="5">
+        <v>25</v>
+      </c>
+      <c r="G45" s="5">
+        <v>100</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="5">
-        <f>(G45-F45)</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J45:J46" si="1">(G45-F45)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>153</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="6">
-        <v>80</v>
-      </c>
-      <c r="G46" s="11">
-        <v>300</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F46" s="5">
+        <v>250</v>
+      </c>
+      <c r="G46" s="5">
+        <v>250</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="5">
-        <f>(G46-F46)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="104">
+        <f>SUM(G43:G46)</f>
+        <v>2450</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="90">
+        <f>SUM(J43:J46)</f>
+        <v>1045</v>
+      </c>
+      <c r="K47" s="82">
+        <v>11160</v>
+      </c>
+      <c r="L47" s="82">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="5">
-        <v>25</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="H50" s="121" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="6">
+        <v>30</v>
+      </c>
+      <c r="G51" s="11">
         <v>100</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5">
-        <f t="shared" ref="J47:J48" si="1">(G47-F47)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="5">
-        <v>4</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="5">
-        <v>250</v>
-      </c>
-      <c r="G48" s="5">
-        <v>250</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9">
-        <f>SUM(G45:G48)</f>
-        <v>2450</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="J49" s="89">
-        <f>SUM(J45:J48)</f>
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I50" s="87">
-        <v>11160</v>
-      </c>
-      <c r="J50" s="94">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="6">
-        <v>30</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="104">
         <v>100</v>
       </c>
       <c r="H52" s="5"/>
@@ -4592,28 +4922,33 @@
       <c r="J52" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="9"/>
-      <c r="J53" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="87">
+      <c r="K52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="88">
         <v>11260</v>
       </c>
-      <c r="J54" s="93">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="88">
+        <v>3815</v>
+      </c>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+    </row>
+    <row r="55" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="51" t="s">
         <v>39</v>
       </c>
@@ -4642,7 +4977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <v>1</v>
       </c>
@@ -4657,7 +4992,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="58" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="51" t="s">
         <v>39</v>
       </c>
@@ -4686,7 +5021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <v>1</v>
       </c>
@@ -4715,7 +5050,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
         <v>2</v>
       </c>
@@ -4744,7 +5079,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>3</v>
       </c>
@@ -4773,7 +5108,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>4</v>
       </c>
@@ -4802,25 +5137,33 @@
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G63" s="5">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G63" s="39">
         <f>SUM(G59:G62)</f>
         <v>3850</v>
       </c>
-      <c r="J63" s="50">
-        <f>SUM(J59:J62)</f>
+      <c r="J63" s="90">
+        <f ca="1">SUM(J59:J63)</f>
         <v>1435</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I64" s="83">
+      <c r="L63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L64" s="88">
         <v>15110</v>
       </c>
-      <c r="J64" s="94">
-        <v>5185</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="88">
+        <v>5250</v>
+      </c>
+      <c r="N64" s="5"/>
+    </row>
+    <row r="66" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="51" t="s">
         <v>39</v>
       </c>
@@ -4849,7 +5192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="5">
         <v>1</v>
       </c>
@@ -4875,7 +5218,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
         <v>1</v>
       </c>
@@ -4904,25 +5247,33 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G69">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G69" s="37">
         <f>SUM(G67:G68)</f>
         <v>500</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="90">
         <f>SUM(J67:J68)</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I70" s="83">
+      <c r="L69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L70" s="88">
         <v>15610</v>
       </c>
-      <c r="J70" s="94">
-        <v>5350</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="88">
+        <v>5415</v>
+      </c>
+      <c r="N70" s="5"/>
+    </row>
+    <row r="72" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="51" t="s">
         <v>39</v>
       </c>
@@ -4951,7 +5302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <v>1</v>
       </c>
@@ -4961,189 +5312,1031 @@
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="5"/>
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5">
         <f>(G73-F73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="51" t="s">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L75" s="88">
+        <v>15610</v>
+      </c>
+      <c r="M75" s="88">
+        <v>5415</v>
+      </c>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="77" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C77" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="51" t="s">
+      <c r="D77" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G75" s="51" t="s">
+      <c r="G77" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="51" t="s">
+      <c r="H77" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I75" s="51" t="s">
+      <c r="I77" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J75" s="51" t="s">
+      <c r="J77" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="5">
-        <v>1</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="5">
-        <v>300</v>
-      </c>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5">
-        <f>(G76-F76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="5">
-        <v>2</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5">
-        <v>150</v>
-      </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>198</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" s="6">
+        <v>220</v>
+      </c>
+      <c r="G78" s="5">
+        <v>300</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5">
+        <f>(G78-F78)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="5">
+        <v>2</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E79" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="5">
+        <v>120</v>
+      </c>
+      <c r="G79" s="5">
+        <v>150</v>
+      </c>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5">
+        <f t="shared" ref="J79:J80" si="3">(G79-F79)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="5">
+        <v>3</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5">
+      <c r="F80" s="5">
+        <v>70</v>
+      </c>
+      <c r="G80" s="5">
         <v>100</v>
       </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5">
-        <f>SUM(H76:H78)</f>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="39">
+        <f>SUM(G78:G80)</f>
         <v>550</v>
       </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="81" spans="2:10" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="51" t="s">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="90">
+        <f ca="1">SUM(J78:J81)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L83" s="82">
+        <v>16160</v>
+      </c>
+      <c r="M83" s="88">
+        <v>5555</v>
+      </c>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="85" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C85" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="51" t="s">
+      <c r="D85" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G85" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H81" s="51" t="s">
+      <c r="H85" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="51" t="s">
+      <c r="I85" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J81" s="51" t="s">
+      <c r="J85" s="51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="5">
-        <v>1</v>
-      </c>
-      <c r="C82" s="102">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <v>1</v>
+      </c>
+      <c r="C86" s="98">
         <v>43833</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F86" s="6">
         <v>30</v>
       </c>
-      <c r="G82" s="11"/>
-      <c r="H82" s="5">
+      <c r="G86" s="5">
         <v>100</v>
       </c>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5">
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5">
+        <f>(G86-F86)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="102">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="98">
         <v>43833</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D87" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E87" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="H83">
+      <c r="F87">
+        <v>130</v>
+      </c>
+      <c r="G87">
         <v>150</v>
+      </c>
+      <c r="J87" s="5">
+        <f>(G87-F87)</f>
+        <v>20</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G88" s="37">
+        <f>SUM(G86:G87)</f>
+        <v>250</v>
+      </c>
+      <c r="J88" s="90">
+        <v>90</v>
+      </c>
+      <c r="L88" s="82">
+        <v>16410</v>
+      </c>
+      <c r="M88" s="88">
+        <v>5645</v>
+      </c>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="90" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <v>1</v>
+      </c>
+      <c r="C91" s="98">
+        <v>43864</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" s="11">
+        <v>70</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="39">
+        <v>100</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="82">
+        <v>16510</v>
+      </c>
+      <c r="J92" s="90">
+        <v>30</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="5"/>
+      <c r="L93" s="82">
+        <v>16510</v>
+      </c>
+      <c r="M93" s="88">
+        <v>5675</v>
+      </c>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="5">
+        <v>1</v>
+      </c>
+      <c r="C96" s="98">
+        <v>43893</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="6">
+        <v>35</v>
+      </c>
+      <c r="G96" s="11">
+        <v>100</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5">
+        <f>(G96-F96)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="98">
+        <v>43893</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F97" s="6">
+        <v>120</v>
+      </c>
+      <c r="G97" s="11">
+        <v>150</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5">
+        <f>(G97-F97)</f>
+        <v>30</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G98" s="37">
+        <f>SUM(G96:G97)</f>
+        <v>250</v>
+      </c>
+      <c r="J98" s="90">
+        <v>95</v>
+      </c>
+      <c r="L98" s="82">
+        <v>16760</v>
+      </c>
+      <c r="M98" s="88">
+        <v>5770</v>
+      </c>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="100" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+      <c r="C101" s="98">
+        <v>43924</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="6">
+        <v>85</v>
+      </c>
+      <c r="G101" s="11">
+        <v>150</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5">
+        <f>(G101-F101)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="5">
+        <v>2</v>
+      </c>
+      <c r="C102" s="98">
+        <v>43924</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="6">
+        <v>85</v>
+      </c>
+      <c r="G102" s="11">
+        <v>150</v>
+      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5">
+        <f t="shared" ref="J102:J104" si="4">(G102-F102)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="20">
+        <v>3</v>
+      </c>
+      <c r="C103" s="98">
+        <v>43924</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="5">
+        <v>80</v>
+      </c>
+      <c r="G103" s="11">
+        <v>100</v>
+      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="20">
+        <v>4</v>
+      </c>
+      <c r="C104" s="98">
+        <v>43924</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="5">
+        <v>120</v>
+      </c>
+      <c r="G104" s="11">
+        <v>150</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G105" s="37">
+        <f>SUM(G101:G104)</f>
+        <v>550</v>
+      </c>
+      <c r="J105" s="90">
+        <f>SUM(J101:J104)</f>
+        <v>180</v>
+      </c>
+      <c r="L105" s="82">
+        <v>17310</v>
+      </c>
+      <c r="M105" s="88">
+        <v>5950</v>
+      </c>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="107" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J107" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="98">
+        <v>43954</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="6">
+        <v>220</v>
+      </c>
+      <c r="G108" s="11">
+        <v>250</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5">
+        <f>(G108-F108)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="11">
+        <v>2</v>
+      </c>
+      <c r="C109" s="98">
+        <v>43954</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <v>40</v>
+      </c>
+      <c r="G109" s="11">
+        <v>50</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5">
+        <f t="shared" ref="J109:J110" si="5">(G109-F109)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="11">
+        <v>3</v>
+      </c>
+      <c r="C110" s="98">
+        <v>43954</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <v>220</v>
+      </c>
+      <c r="G110" s="11">
+        <v>250</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G111" s="37">
+        <f>SUM(G108:G110)</f>
+        <v>550</v>
+      </c>
+      <c r="J111" s="90">
+        <f>SUM(J108:J110)</f>
+        <v>70</v>
+      </c>
+      <c r="L111" s="82">
+        <v>17860</v>
+      </c>
+      <c r="M111" s="88">
+        <v>6020</v>
+      </c>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="114" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H114" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="5">
+        <v>1</v>
+      </c>
+      <c r="C115" s="98">
+        <v>44015</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="6">
+        <v>120</v>
+      </c>
+      <c r="G115" s="11">
+        <v>200</v>
+      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5">
+        <f>(G115-F115)</f>
+        <v>80</v>
+      </c>
+      <c r="K115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="5">
+        <v>2</v>
+      </c>
+      <c r="C116" s="98">
+        <v>44015</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" s="6">
+        <v>85</v>
+      </c>
+      <c r="G116" s="11">
+        <v>150</v>
+      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5">
+        <f t="shared" ref="J116:J118" si="6">(G116-F116)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="5">
+        <v>3</v>
+      </c>
+      <c r="C117" s="98">
+        <v>44015</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" s="6">
+        <v>230</v>
+      </c>
+      <c r="G117" s="11">
+        <v>450</v>
+      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="11">
+        <v>4</v>
+      </c>
+      <c r="C118" s="98">
+        <v>44015</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" s="5">
+        <v>75</v>
+      </c>
+      <c r="G118" s="11">
+        <v>150</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="39">
+        <f>SUM(G115:G118)</f>
+        <v>950</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="90">
+        <f>SUM(J115:J118)</f>
+        <v>440</v>
+      </c>
+      <c r="L119" s="82">
+        <v>18810</v>
+      </c>
+      <c r="M119" s="88">
+        <v>6460</v>
+      </c>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="121" spans="2:14" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J121" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="5">
+        <v>1</v>
+      </c>
+      <c r="C122" s="98">
+        <v>44046</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F122" s="6">
+        <v>250</v>
+      </c>
+      <c r="G122" s="11">
+        <v>350</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="5">
+        <v>2</v>
+      </c>
+      <c r="C123" s="98">
+        <v>44046</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" s="5">
+        <v>250</v>
+      </c>
+      <c r="G123" s="5">
+        <v>350</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="5">
+        <v>3</v>
+      </c>
+      <c r="C124" s="98">
+        <v>44046</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F124" s="5">
+        <v>130</v>
+      </c>
+      <c r="G124" s="5">
+        <v>150</v>
+      </c>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5156,30 +6349,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -5288,10 +6481,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="17">
@@ -5300,13 +6493,94 @@
       <c r="I9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <f t="shared" ref="J9:J12" si="0">(G9-E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>44015</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="6">
+        <v>250</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>300</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44015</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1700</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>2300</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>44046</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="117">
+        <v>260</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="130">
+        <v>300</v>
+      </c>
+      <c r="H12" s="129"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="130">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="37">
+        <v>3200</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5315,10 +6589,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C1:R153"/>
+  <dimension ref="C1:R187"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q151" sqref="Q151"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q181" sqref="Q181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5334,18 +6608,19 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:18" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -6641,6 +7916,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="65"/>
+      <c r="O50" s="65"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C51" s="65" t="s">
@@ -6735,7 +8011,7 @@
       <c r="H54" s="65"/>
       <c r="I54" s="65"/>
       <c r="J54" s="65"/>
-      <c r="K54" s="81">
+      <c r="K54" s="108">
         <v>6850</v>
       </c>
       <c r="L54" s="65">
@@ -6775,7 +8051,7 @@
       <c r="H56" s="65"/>
       <c r="I56" s="66"/>
       <c r="J56" s="65"/>
-      <c r="K56" s="82">
+      <c r="K56" s="81">
         <v>4080</v>
       </c>
       <c r="L56" s="65">
@@ -6806,15 +8082,38 @@
       </c>
       <c r="J57" s="65"/>
       <c r="K57" s="65"/>
-      <c r="L57" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="L57" s="106"/>
       <c r="M57" s="65"/>
+      <c r="N57" t="s">
+        <v>265</v>
+      </c>
+      <c r="O57" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="58" spans="3:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I58" s="10"/>
-      <c r="P58"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="39">
+        <v>2980</v>
+      </c>
+      <c r="L58" s="106">
+        <f>SUM(L5:L57)</f>
+        <v>5609</v>
+      </c>
+      <c r="M58" s="109"/>
+      <c r="N58">
+        <v>19720</v>
+      </c>
+      <c r="O58">
+        <v>5609</v>
+      </c>
+      <c r="P58">
+        <v>2980</v>
+      </c>
       <c r="Q58"/>
       <c r="R58"/>
     </row>
@@ -6923,7 +8222,9 @@
       <c r="H63" s="65"/>
       <c r="I63" s="66"/>
       <c r="J63" s="66"/>
-      <c r="K63" s="65"/>
+      <c r="K63" s="81">
+        <v>180</v>
+      </c>
       <c r="L63" s="66"/>
       <c r="M63" s="65"/>
     </row>
@@ -6940,7 +8241,7 @@
       <c r="L64" s="65"/>
       <c r="M64" s="68"/>
     </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65" s="65" t="s">
         <v>136</v>
       </c>
@@ -6970,7 +8271,7 @@
       </c>
       <c r="M65" s="65"/>
     </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="65" t="s">
         <v>136</v>
       </c>
@@ -6998,7 +8299,7 @@
       </c>
       <c r="M66" s="65"/>
     </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67" s="65" t="s">
         <v>136</v>
       </c>
@@ -7027,8 +8328,17 @@
         <v>950</v>
       </c>
       <c r="M67" s="65"/>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>265</v>
+      </c>
+      <c r="O67" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="65"/>
       <c r="D68" s="65"/>
       <c r="E68" s="65"/>
@@ -7036,1526 +8346,1668 @@
       <c r="G68" s="65"/>
       <c r="H68" s="65"/>
       <c r="I68" s="66"/>
-      <c r="J68" s="65">
-        <v>22040</v>
-      </c>
-      <c r="K68" s="82"/>
-      <c r="L68" s="65">
-        <v>6532</v>
+      <c r="J68" s="39">
+        <f>SUM(J65:J67)</f>
+        <v>2320</v>
+      </c>
+      <c r="K68" s="81"/>
+      <c r="L68" s="106">
+        <f>SUM(L65:L67)</f>
+        <v>1150</v>
       </c>
       <c r="M68" s="65" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="38" t="s">
+      <c r="N68">
+        <v>22040</v>
+      </c>
+      <c r="O68" s="107">
+        <v>6784</v>
+      </c>
+      <c r="P68">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C69" s="79"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="111">
+        <v>2500</v>
+      </c>
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="O69" s="94"/>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C72" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="38" t="s">
+      <c r="D72" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F70" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="38" t="s">
+      <c r="F72" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H70" s="38" t="s">
+      <c r="H72" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="38" t="s">
+      <c r="I72" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J70" s="38" t="s">
+      <c r="J72" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="38" t="s">
+      <c r="K72" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L70" s="38" t="s">
+      <c r="L72" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M70" s="39" t="s">
+      <c r="M72" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C71" s="65" t="s">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C73" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D73" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E71" s="65">
-        <v>1</v>
-      </c>
-      <c r="F71" s="65" t="s">
+      <c r="E73" s="65">
+        <v>1</v>
+      </c>
+      <c r="F73" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="65" t="s">
+      <c r="G73" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H71" s="65">
+      <c r="H73" s="65">
         <v>210</v>
       </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="65">
+      <c r="I73" s="66"/>
+      <c r="J73" s="65">
         <v>300</v>
       </c>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65">
-        <f t="shared" ref="L71" si="1">(J71-H71)</f>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65">
+        <f t="shared" ref="L73" si="1">(J73-H73)</f>
         <v>90</v>
       </c>
-      <c r="M71" s="65"/>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="65" t="s">
+      <c r="M73" s="65"/>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C74" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D74" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="65">
-        <v>1</v>
-      </c>
-      <c r="F72" s="65" t="s">
+      <c r="E74" s="65">
+        <v>1</v>
+      </c>
+      <c r="F74" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="65" t="s">
+      <c r="G74" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H72" s="65">
+      <c r="H74" s="65">
         <v>1450</v>
       </c>
-      <c r="I72" s="66"/>
-      <c r="J72" s="65">
+      <c r="I74" s="66"/>
+      <c r="J74" s="65">
         <v>2000</v>
       </c>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65">
-        <f t="shared" ref="L72" si="2">(J72-H72)</f>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65">
+        <f t="shared" ref="L74" si="2">(J74-H74)</f>
         <v>550</v>
       </c>
-      <c r="M72" s="65"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K73" s="83">
+      <c r="M74" s="65"/>
+      <c r="N74" t="s">
+        <v>265</v>
+      </c>
+      <c r="O74" t="s">
+        <v>42</v>
+      </c>
+      <c r="P74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="79">
+        <f>SUM(J73:J74)</f>
+        <v>2300</v>
+      </c>
+      <c r="K75" s="79"/>
+      <c r="L75" s="105">
+        <f>SUM(L73:L74)</f>
+        <v>640</v>
+      </c>
+      <c r="M75" s="79"/>
+      <c r="N75">
+        <v>24340</v>
+      </c>
+      <c r="O75">
+        <v>7424</v>
+      </c>
+      <c r="P75">
         <v>4800</v>
       </c>
-      <c r="L73" s="94">
-        <v>7172</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="38" t="s">
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K76" s="82">
+        <v>4800</v>
+      </c>
+      <c r="L76" s="50"/>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C78" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="38" t="s">
+      <c r="D78" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F74" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G74" s="38" t="s">
+      <c r="F78" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="38" t="s">
+      <c r="H78" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="38" t="s">
+      <c r="I78" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="38" t="s">
+      <c r="J78" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K74" s="38" t="s">
+      <c r="K78" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L74" s="38" t="s">
+      <c r="L78" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M78" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C75" s="84" t="s">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C79" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="84" t="s">
+      <c r="D79" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="84">
-        <v>1</v>
-      </c>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84" t="s">
+      <c r="E79" s="83">
+        <v>1</v>
+      </c>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H75" s="84">
+      <c r="H79" s="83">
         <v>2400</v>
       </c>
-      <c r="I75" s="84"/>
-      <c r="J75" s="84">
+      <c r="I79" s="83"/>
+      <c r="J79" s="83">
         <v>2800</v>
       </c>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84">
-        <f t="shared" ref="L75:L82" si="3">(J75-H75)</f>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83">
+        <f t="shared" ref="L79:L86" si="3">(J79-H79)</f>
         <v>400</v>
       </c>
-      <c r="M75" s="84"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C76" s="84" t="s">
+      <c r="M79" s="83"/>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C80" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="84" t="s">
+      <c r="D80" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="E76" s="84">
-        <v>1</v>
-      </c>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84" t="s">
+      <c r="E80" s="83">
+        <v>1</v>
+      </c>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="84">
+      <c r="H80" s="83">
         <v>210</v>
       </c>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84">
+      <c r="I80" s="83"/>
+      <c r="J80" s="83">
         <v>300</v>
       </c>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84">
+      <c r="K80" s="83"/>
+      <c r="L80" s="83">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="M76" s="84"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C77" s="84" t="s">
+      <c r="M80" s="83"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C81" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D77" s="86">
+      <c r="D81" s="85">
         <v>8600</v>
       </c>
-      <c r="E77" s="84">
+      <c r="E81" s="83">
         <v>5</v>
       </c>
-      <c r="F77" s="84" t="s">
+      <c r="F81" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="G81" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H77" s="84">
+      <c r="H81" s="83">
         <v>15</v>
       </c>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84">
+      <c r="I81" s="83"/>
+      <c r="J81" s="83">
         <v>25</v>
       </c>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84">
+      <c r="K81" s="83"/>
+      <c r="L81" s="83">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M77" s="84"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C78" s="84" t="s">
+      <c r="M81" s="83"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C82" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="84" t="s">
+      <c r="D82" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="84">
+      <c r="E82" s="83">
         <v>2</v>
       </c>
-      <c r="F78" s="84" t="s">
+      <c r="F82" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="G78" s="84" t="s">
+      <c r="G82" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="84">
+      <c r="H82" s="83">
         <v>40</v>
       </c>
-      <c r="I78" s="84"/>
-      <c r="J78" s="84">
+      <c r="I82" s="83"/>
+      <c r="J82" s="83">
         <v>40</v>
       </c>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84">
+      <c r="K82" s="83"/>
+      <c r="L82" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M78" s="84"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C79" s="84" t="s">
+      <c r="M82" s="83"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C83" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="86">
+      <c r="D83" s="85">
         <v>2.8</v>
       </c>
-      <c r="E79" s="84">
-        <v>1</v>
-      </c>
-      <c r="F79" s="84" t="s">
+      <c r="E83" s="83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="G83" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H79" s="84">
+      <c r="H83" s="83">
         <v>350</v>
       </c>
-      <c r="I79" s="84"/>
-      <c r="J79" s="84">
+      <c r="I83" s="83"/>
+      <c r="J83" s="83">
         <v>350</v>
       </c>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84">
+      <c r="K83" s="83"/>
+      <c r="L83" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M79" s="84"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84">
+      <c r="M83" s="83"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="G84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="I84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M80" s="84"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C81" s="84" t="s">
+      <c r="M84" s="83"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C85" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="84" t="s">
+      <c r="D85" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="E81" s="84">
+      <c r="E85" s="83">
         <v>10</v>
       </c>
-      <c r="F81" s="84" t="s">
+      <c r="F85" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="G81" s="84" t="s">
+      <c r="G85" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H81" s="84">
+      <c r="H85" s="83">
         <v>30</v>
       </c>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84">
+      <c r="I85" s="83"/>
+      <c r="J85" s="83">
         <v>50</v>
       </c>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84">
+      <c r="K85" s="83"/>
+      <c r="L85" s="83">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M81" s="84"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C82" s="84" t="s">
+      <c r="M85" s="83"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C86" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="84" t="s">
+      <c r="D86" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="84">
-        <v>1</v>
-      </c>
-      <c r="F82" s="84" t="s">
+      <c r="E86" s="83">
+        <v>1</v>
+      </c>
+      <c r="F86" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="84" t="s">
+      <c r="G86" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H82" s="84">
+      <c r="H86" s="83">
         <v>130</v>
       </c>
-      <c r="I82" s="84"/>
-      <c r="J82" s="84">
+      <c r="I86" s="83"/>
+      <c r="J86" s="83">
         <v>150</v>
       </c>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84">
+      <c r="K86" s="83"/>
+      <c r="L86" s="83">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M82" s="84"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="83">
-        <v>8565</v>
-      </c>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C84" s="84" t="s">
+      <c r="M86" s="83"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
+      <c r="G87" s="83"/>
+      <c r="H87" s="83"/>
+      <c r="I87" s="83"/>
+      <c r="J87" s="83"/>
+      <c r="K87" s="82">
+        <v>8515</v>
+      </c>
+      <c r="L87" s="83"/>
+      <c r="M87" s="83"/>
+      <c r="N87" t="s">
+        <v>265</v>
+      </c>
+      <c r="O87" t="s">
+        <v>42</v>
+      </c>
+      <c r="P87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C88" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D84" s="84" t="s">
+      <c r="D88" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="E84" s="84">
-        <v>1</v>
-      </c>
-      <c r="F84" s="84" t="s">
+      <c r="E88" s="83">
+        <v>1</v>
+      </c>
+      <c r="F88" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G84" s="84" t="s">
+      <c r="G88" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84">
+      <c r="H88" s="83"/>
+      <c r="I88" s="83">
         <v>1700</v>
       </c>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K85" s="83">
-        <v>6865</v>
-      </c>
-      <c r="L85" s="93">
-        <f>SUM(L75:L84)</f>
+      <c r="J88" s="83"/>
+      <c r="K88" s="83"/>
+      <c r="L88" s="83"/>
+      <c r="M88" s="83"/>
+      <c r="N88">
+        <v>28055</v>
+      </c>
+      <c r="O88">
+        <v>7964</v>
+      </c>
+      <c r="P88">
+        <v>6815</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K89" s="82">
+        <v>6815</v>
+      </c>
+      <c r="L89" s="83">
         <v>540</v>
       </c>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C87" s="38" t="s">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C91" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="38" t="s">
+      <c r="D91" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F87" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G87" s="38" t="s">
+      <c r="F91" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H91" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I91" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J87" s="38" t="s">
+      <c r="J91" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K87" s="38" t="s">
+      <c r="K91" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L87" s="38" t="s">
+      <c r="L91" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M87" s="39" t="s">
+      <c r="M91" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C88" s="84" t="s">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C92" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="D88" s="84" t="s">
+      <c r="D92" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="E88" s="84">
-        <v>1</v>
-      </c>
-      <c r="F88" s="84" t="s">
+      <c r="E92" s="83">
+        <v>1</v>
+      </c>
+      <c r="F92" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="84" t="s">
+      <c r="G92" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="H88" s="84">
+      <c r="H92" s="83">
         <v>310</v>
       </c>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84">
+      <c r="I92" s="83"/>
+      <c r="J92" s="83">
         <v>600</v>
       </c>
-      <c r="K88" s="84"/>
-      <c r="L88" s="84">
-        <f>(H88-I88)</f>
+      <c r="K92" s="83"/>
+      <c r="L92" s="83">
+        <f>(H92-I92)</f>
         <v>310</v>
       </c>
-      <c r="M88" s="84"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C89" s="84" t="s">
+      <c r="M92" s="83"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="84" t="s">
+      <c r="D93" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="E89" s="84">
-        <v>1</v>
-      </c>
-      <c r="F89" s="84" t="s">
+      <c r="E93" s="83">
+        <v>1</v>
+      </c>
+      <c r="F93" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="G89" s="84" t="s">
+      <c r="G93" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="H89" s="84">
+      <c r="H93" s="83">
         <v>650</v>
       </c>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84">
+      <c r="I93" s="83"/>
+      <c r="J93" s="83">
         <v>800</v>
       </c>
-      <c r="K89" s="84"/>
-      <c r="L89" s="84">
-        <f>(J89-H89)</f>
+      <c r="K93" s="83"/>
+      <c r="L93" s="83">
+        <f>(J93-H93)</f>
         <v>150</v>
       </c>
-      <c r="M89" s="84"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C90" s="84" t="s">
+      <c r="M93" s="83"/>
+      <c r="N93" t="s">
+        <v>265</v>
+      </c>
+      <c r="O93" t="s">
+        <v>42</v>
+      </c>
+      <c r="P93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C94" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="90">
+      <c r="D94" s="87">
         <v>8600</v>
       </c>
-      <c r="E90" s="84">
-        <v>1</v>
-      </c>
-      <c r="F90" s="84" t="s">
+      <c r="E94" s="83">
+        <v>1</v>
+      </c>
+      <c r="F94" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G90" s="84" t="s">
+      <c r="G94" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="H90" s="84">
+      <c r="H94" s="83">
         <v>3</v>
       </c>
-      <c r="I90" s="84"/>
-      <c r="J90" s="84">
+      <c r="I94" s="83"/>
+      <c r="J94" s="83">
         <v>5</v>
       </c>
-      <c r="K90" s="84"/>
-      <c r="L90" s="84">
-        <f>(J90-I90)</f>
+      <c r="K94" s="83"/>
+      <c r="L94" s="83">
+        <f>(J94-I94)</f>
         <v>5</v>
       </c>
-      <c r="M90" s="84"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K91" s="92">
-        <v>8265</v>
-      </c>
-      <c r="L91" s="94">
-        <f>SUM(L88:L90)</f>
+      <c r="M94" s="83"/>
+      <c r="N94">
+        <v>29460</v>
+      </c>
+      <c r="O94">
+        <v>8429</v>
+      </c>
+      <c r="P94">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K95" s="89">
+        <v>8220</v>
+      </c>
+      <c r="L95" s="90">
+        <f>SUM(L92:L94)</f>
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C93" s="38" t="s">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C97" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="38" t="s">
+      <c r="D97" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F93" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G93" s="38" t="s">
+      <c r="F97" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H93" s="38" t="s">
+      <c r="H97" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I93" s="38" t="s">
+      <c r="I97" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="38" t="s">
+      <c r="J97" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K93" s="38" t="s">
+      <c r="K97" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L93" s="38" t="s">
+      <c r="L97" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M93" s="39" t="s">
+      <c r="M97" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C94" s="84" t="s">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="84" t="s">
+      <c r="D98" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="84">
-        <v>1</v>
-      </c>
-      <c r="F94" s="84" t="s">
+      <c r="E98" s="83">
+        <v>1</v>
+      </c>
+      <c r="F98" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="84" t="s">
+      <c r="G98" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84">
+      <c r="H98" s="83"/>
+      <c r="I98" s="83">
         <v>3000</v>
       </c>
-      <c r="J94" s="84"/>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="84"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C95" s="84" t="s">
+      <c r="J98" s="83"/>
+      <c r="K98" s="83"/>
+      <c r="L98" s="83"/>
+      <c r="M98" s="83"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C99" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="84" t="s">
+      <c r="D99" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="84">
-        <v>1</v>
-      </c>
-      <c r="F95" s="84" t="s">
+      <c r="E99" s="83">
+        <v>1</v>
+      </c>
+      <c r="F99" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="84" t="s">
+      <c r="G99" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="H95" s="84"/>
-      <c r="I95" s="84">
+      <c r="H99" s="83"/>
+      <c r="I99" s="83">
         <v>1410</v>
       </c>
-      <c r="J95" s="84"/>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="84"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C96" s="84" t="s">
+      <c r="J99" s="83"/>
+      <c r="K99" s="83"/>
+      <c r="L99" s="83"/>
+      <c r="M99" s="83"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C100" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="84" t="s">
+      <c r="D100" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="E96" s="84">
-        <v>1</v>
-      </c>
-      <c r="F96" s="84" t="s">
+      <c r="E100" s="83">
+        <v>1</v>
+      </c>
+      <c r="F100" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="84" t="s">
+      <c r="G100" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84">
+      <c r="H100" s="83"/>
+      <c r="I100" s="83">
         <v>1500</v>
       </c>
-      <c r="J96" s="84"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="84"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C97" s="84" t="s">
+      <c r="J100" s="83"/>
+      <c r="K100" s="83"/>
+      <c r="L100" s="83"/>
+      <c r="M100" s="83"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C101" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="65" t="s">
+      <c r="D101" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="65">
-        <v>1</v>
-      </c>
-      <c r="F97" s="65" t="s">
+      <c r="E101" s="65">
+        <v>1</v>
+      </c>
+      <c r="F101" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="G97" s="65" t="s">
+      <c r="G101" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="H97" s="76">
+      <c r="H101" s="76">
         <v>150</v>
       </c>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65">
-        <v>250</v>
-      </c>
-      <c r="K97" s="65"/>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C98" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E98" s="65">
-        <v>1</v>
-      </c>
-      <c r="F98" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="G98" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="H98" s="76">
-        <v>400</v>
-      </c>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65">
-        <v>500</v>
-      </c>
-      <c r="K98" s="65"/>
-      <c r="L98" s="65"/>
-      <c r="M98" s="65"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C99" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D99" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="65">
-        <v>1</v>
-      </c>
-      <c r="F99" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H99" s="76">
-        <v>1</v>
-      </c>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65">
-        <v>300</v>
-      </c>
-      <c r="K99" s="65"/>
-      <c r="L99" s="65"/>
-      <c r="M99" s="65"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C100" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D100" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100" s="65">
-        <v>1</v>
-      </c>
-      <c r="F100" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H100" s="76">
-        <v>1500</v>
-      </c>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65">
-        <v>1800</v>
-      </c>
-      <c r="K100" s="65"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C101" s="84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="E101" s="65">
-        <v>1</v>
-      </c>
-      <c r="F101" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="G101" s="65"/>
-      <c r="H101" s="76"/>
       <c r="I101" s="65"/>
       <c r="J101" s="65">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K101" s="65"/>
-      <c r="L101" s="65"/>
+      <c r="L101" s="65">
+        <f>(J101-H101)</f>
+        <v>100</v>
+      </c>
       <c r="M101" s="65"/>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C102" s="84"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="76"/>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C102" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E102" s="65">
+        <v>1</v>
+      </c>
+      <c r="F102" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="G102" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="H102" s="76">
+        <v>400</v>
+      </c>
       <c r="I102" s="65"/>
       <c r="J102" s="65">
-        <f>SUM(J97:J101)</f>
-        <v>2930</v>
+        <v>500</v>
       </c>
       <c r="K102" s="65"/>
-      <c r="L102" s="65"/>
+      <c r="L102" s="65">
+        <f t="shared" ref="L102:L104" si="4">(J102-H102)</f>
+        <v>100</v>
+      </c>
       <c r="M102" s="65"/>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K103" s="97">
-        <v>5285</v>
-      </c>
-    </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K104" s="98"/>
-    </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C105" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="38" t="s">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C103" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="E103" s="65">
+        <v>1</v>
+      </c>
+      <c r="F103" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H103" s="76">
+        <v>1</v>
+      </c>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65">
+        <v>300</v>
+      </c>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="M103" s="65"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C104" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D104" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" s="65">
+        <v>1</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H104" s="76">
+        <v>1500</v>
+      </c>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65">
+        <v>1800</v>
+      </c>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="M104" s="65"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C105" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D105" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="65">
+        <v>1</v>
+      </c>
+      <c r="F105" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="G105" s="65">
+        <v>50</v>
+      </c>
+      <c r="H105" s="76"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65">
+        <v>80</v>
+      </c>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65">
         <v>30</v>
       </c>
-      <c r="F105" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I105" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K105" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L105" s="38" t="s">
+      <c r="M105" s="65"/>
+      <c r="N105" t="s">
+        <v>265</v>
+      </c>
+      <c r="O105" t="s">
         <v>42</v>
       </c>
-      <c r="M105" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C106" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="D106" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E106" s="65">
-        <v>1</v>
-      </c>
-      <c r="F106" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H106" s="76">
-        <v>119</v>
-      </c>
+      <c r="P105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C106" s="83"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="76"/>
       <c r="I106" s="65"/>
       <c r="J106" s="65">
-        <v>200</v>
+        <f>SUM(J101:J105)</f>
+        <v>2930</v>
       </c>
       <c r="K106" s="65"/>
       <c r="L106" s="65"/>
       <c r="M106" s="65"/>
-    </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C107" s="84" t="s">
+      <c r="N106">
+        <v>32390</v>
+      </c>
+      <c r="O106">
+        <v>9258</v>
+      </c>
+      <c r="P106">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K107" s="93">
+        <v>5240</v>
+      </c>
+      <c r="L107" s="112">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K108" s="94"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C109" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G109" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I109" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L109" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M109" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C110" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="D107" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="E107" s="65">
-        <v>1</v>
-      </c>
-      <c r="F107" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H107" s="76">
-        <v>1500</v>
-      </c>
-      <c r="I107" s="65"/>
-      <c r="J107" s="84">
-        <v>1800</v>
-      </c>
-      <c r="K107" s="65"/>
-      <c r="L107" s="65"/>
-      <c r="M107" s="65"/>
-    </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C108" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="D108" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="E108" s="65">
-        <v>1</v>
-      </c>
-      <c r="F108" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="G108" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H108" s="76">
-        <v>450</v>
-      </c>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65">
-        <v>500</v>
-      </c>
-      <c r="K108" s="65"/>
-      <c r="L108" s="65"/>
-      <c r="M108" s="65"/>
-    </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C109" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="D109" s="77">
-        <v>8600</v>
-      </c>
-      <c r="E109" s="65">
-        <v>4</v>
-      </c>
-      <c r="F109" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="G109" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H109" s="76">
-        <v>12</v>
-      </c>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65">
-        <v>20</v>
-      </c>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-    </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C110" s="84" t="s">
-        <v>198</v>
-      </c>
       <c r="D110" s="65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E110" s="65">
         <v>1</v>
       </c>
       <c r="F110" s="65" t="s">
-        <v>205</v>
+        <v>8</v>
       </c>
       <c r="G110" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H110" s="76">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I110" s="65"/>
       <c r="J110" s="65">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="K110" s="65"/>
-      <c r="L110" s="65"/>
+      <c r="L110" s="65">
+        <f>(J110-H110)</f>
+        <v>81</v>
+      </c>
       <c r="M110" s="65"/>
     </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C111" s="84" t="s">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C111" s="83" t="s">
         <v>198</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E111" s="65">
         <v>1</v>
       </c>
       <c r="F111" s="65" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G111" s="65" t="s">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="H111" s="76">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="I111" s="65"/>
-      <c r="J111" s="65">
-        <v>15</v>
+      <c r="J111" s="83">
+        <v>1800</v>
       </c>
       <c r="K111" s="65"/>
-      <c r="L111" s="65"/>
+      <c r="L111" s="65">
+        <f t="shared" ref="L111:L115" si="5">(J111-H111)</f>
+        <v>300</v>
+      </c>
       <c r="M111" s="65"/>
     </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C112" s="84"/>
-      <c r="D112" s="99"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="99"/>
-      <c r="G112" s="99"/>
-      <c r="H112" s="76"/>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C112" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E112" s="65">
+        <v>1</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G112" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" s="76">
+        <v>450</v>
+      </c>
       <c r="I112" s="65"/>
       <c r="J112" s="65">
-        <f>SUM(J106:J111)</f>
-        <v>2685</v>
+        <v>500</v>
       </c>
       <c r="K112" s="65"/>
-      <c r="L112" s="65"/>
+      <c r="L112" s="65">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
       <c r="M112" s="65"/>
     </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K113" s="101">
-        <v>7970</v>
-      </c>
-    </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C115" s="38" t="s">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C113" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="77">
+        <v>8600</v>
+      </c>
+      <c r="E113" s="65">
+        <v>4</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G113" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113" s="76">
+        <v>12</v>
+      </c>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65">
+        <v>20</v>
+      </c>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M113" s="65"/>
+    </row>
+    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C114" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="E114" s="65">
+        <v>1</v>
+      </c>
+      <c r="F114" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G114" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H114" s="76">
+        <v>100</v>
+      </c>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65">
+        <v>150</v>
+      </c>
+      <c r="K114" s="65"/>
+      <c r="L114" s="65">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="M114" s="65"/>
+    </row>
+    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C115" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="D115" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" s="65">
+        <v>1</v>
+      </c>
+      <c r="F115" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G115" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H115" s="76">
+        <v>10</v>
+      </c>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65">
+        <v>15</v>
+      </c>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D115" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="38" t="s">
+      <c r="M115" s="65"/>
+      <c r="N115" t="s">
+        <v>265</v>
+      </c>
+      <c r="O115" t="s">
+        <v>42</v>
+      </c>
+      <c r="P115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C116" s="83"/>
+      <c r="D116" s="95"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="95"/>
+      <c r="G116" s="95"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="106"/>
+      <c r="M116" s="65"/>
+      <c r="N116">
+        <v>35075</v>
+      </c>
+      <c r="O116">
+        <v>9752</v>
+      </c>
+      <c r="P116">
+        <v>7925</v>
+      </c>
+    </row>
+    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K117" s="97">
+        <v>7925</v>
+      </c>
+      <c r="L117" s="113">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C119" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F115" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G115" s="38" t="s">
+      <c r="F119" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G119" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="38" t="s">
+      <c r="H119" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I115" s="38" t="s">
+      <c r="I119" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J115" s="38" t="s">
+      <c r="J119" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K115" s="38" t="s">
+      <c r="K119" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L115" s="38" t="s">
+      <c r="L119" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M115" s="39" t="s">
+      <c r="M119" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C116" s="100">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C120" s="96">
         <v>43833</v>
       </c>
-      <c r="D116" s="65" t="s">
+      <c r="D120" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="E116" s="65">
-        <v>1</v>
-      </c>
-      <c r="F116" s="65"/>
-      <c r="G116" s="65" t="s">
+      <c r="E120" s="65">
+        <v>1</v>
+      </c>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H116" s="76">
+      <c r="H120" s="76">
         <v>450</v>
       </c>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65">
-        <v>500</v>
-      </c>
-      <c r="K116" s="65"/>
-      <c r="L116" s="65"/>
-      <c r="M116" s="65"/>
-    </row>
-    <row r="117" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C117" s="100">
-        <v>43833</v>
-      </c>
-      <c r="D117" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="E117" s="65">
-        <v>1</v>
-      </c>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H117" s="76">
-        <v>1100</v>
-      </c>
-      <c r="I117" s="65"/>
-      <c r="J117" s="65">
-        <v>1200</v>
-      </c>
-      <c r="K117" s="65"/>
-      <c r="L117" s="65"/>
-      <c r="M117" s="65"/>
-    </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C118" s="100">
-        <v>43833</v>
-      </c>
-      <c r="D118" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="E118" s="65">
-        <v>1</v>
-      </c>
-      <c r="F118" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="G118" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="H118" s="76">
-        <v>100</v>
-      </c>
-      <c r="I118" s="65"/>
-      <c r="J118" s="65">
-        <v>150</v>
-      </c>
-      <c r="K118" s="65"/>
-      <c r="L118" s="65"/>
-      <c r="M118" s="65"/>
-    </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C119" s="100">
-        <v>43833</v>
-      </c>
-      <c r="D119" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="E119" s="65">
-        <v>5</v>
-      </c>
-      <c r="F119" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="G119" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="H119" s="76">
-        <v>175</v>
-      </c>
-      <c r="I119" s="65"/>
-      <c r="J119" s="65">
-        <v>200</v>
-      </c>
-      <c r="K119" s="65"/>
-      <c r="L119" s="65"/>
-      <c r="M119" s="65"/>
-    </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C120" s="84"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="65"/>
-      <c r="H120" s="76"/>
       <c r="I120" s="65"/>
       <c r="J120" s="65">
-        <f>SUM(J116:J119)</f>
-        <v>2050</v>
+        <v>500</v>
       </c>
       <c r="K120" s="65"/>
-      <c r="L120" s="65"/>
+      <c r="L120" s="65">
+        <f>(J120-H120)</f>
+        <v>50</v>
+      </c>
       <c r="M120" s="65"/>
     </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K121" s="83">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C123" s="38" t="s">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C121" s="96">
+        <v>43833</v>
+      </c>
+      <c r="D121" s="65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E121" s="65">
+        <v>1</v>
+      </c>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H121" s="76">
+        <v>1100</v>
+      </c>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65">
+        <v>1200</v>
+      </c>
+      <c r="K121" s="65"/>
+      <c r="L121" s="65">
+        <f t="shared" ref="L121:L123" si="6">(J121-H121)</f>
+        <v>100</v>
+      </c>
+      <c r="M121" s="65"/>
+    </row>
+    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C122" s="96">
+        <v>43833</v>
+      </c>
+      <c r="D122" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="E122" s="65">
+        <v>1</v>
+      </c>
+      <c r="F122" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H122" s="76">
+        <v>100</v>
+      </c>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65">
+        <v>150</v>
+      </c>
+      <c r="K122" s="65"/>
+      <c r="L122" s="65">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="M122" s="65"/>
+    </row>
+    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C123" s="96">
+        <v>43833</v>
+      </c>
+      <c r="D123" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="E123" s="65">
         <v>5</v>
       </c>
-      <c r="D123" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E123" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F123" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G123" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H123" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I123" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J123" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K123" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L123" s="38" t="s">
+      <c r="F123" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G123" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" s="76">
+        <v>175</v>
+      </c>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65">
+        <v>200</v>
+      </c>
+      <c r="K123" s="65"/>
+      <c r="L123" s="65">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="M123" s="65"/>
+      <c r="N123" t="s">
+        <v>265</v>
+      </c>
+      <c r="O123" t="s">
         <v>42</v>
       </c>
-      <c r="M123" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C124" s="100">
-        <v>43864</v>
-      </c>
-      <c r="D124" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="E124" s="65">
-        <v>1</v>
-      </c>
-      <c r="F124" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="G124" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H124" s="76">
-        <v>50</v>
-      </c>
+      <c r="P123" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C124" s="83"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="76"/>
       <c r="I124" s="65"/>
       <c r="J124" s="65">
+        <f>SUM(J120:J123)</f>
+        <v>2050</v>
+      </c>
+      <c r="K124" s="65"/>
+      <c r="L124" s="109"/>
+      <c r="M124" s="65"/>
+      <c r="N124">
+        <v>37125</v>
+      </c>
+      <c r="O124">
+        <v>9977</v>
+      </c>
+      <c r="P124">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K125" s="82">
+        <v>9975</v>
+      </c>
+      <c r="L125" s="112">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C127" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J127" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K127" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L127" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M127" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C128" s="96">
+        <v>43864</v>
+      </c>
+      <c r="D128" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E128" s="65">
+        <v>1</v>
+      </c>
+      <c r="F128" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="G128" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="76">
+        <v>50</v>
+      </c>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65">
         <v>80</v>
       </c>
-      <c r="K124" s="65"/>
-      <c r="L124" s="65"/>
-      <c r="M124" s="65"/>
-    </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C125" s="100">
+      <c r="K128" s="65"/>
+      <c r="L128" s="65">
+        <f>(J128-H128)</f>
+        <v>30</v>
+      </c>
+      <c r="M128" s="65"/>
+    </row>
+    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C129" s="96">
         <v>43864</v>
       </c>
-      <c r="D125" s="65" t="s">
+      <c r="D129" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="E125" s="65">
-        <v>1</v>
-      </c>
-      <c r="F125" s="65" t="s">
+      <c r="E129" s="65">
+        <v>1</v>
+      </c>
+      <c r="F129" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G125" s="65" t="s">
+      <c r="G129" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H125" s="76">
+      <c r="H129" s="76">
         <v>260</v>
       </c>
-      <c r="I125" s="65"/>
-      <c r="J125" s="65">
+      <c r="I129" s="65"/>
+      <c r="J129" s="65">
         <v>300</v>
       </c>
-      <c r="K125" s="65"/>
-      <c r="L125" s="65"/>
-      <c r="M125" s="65"/>
-    </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C126" s="100">
+      <c r="K129" s="65"/>
+      <c r="L129" s="65">
+        <f t="shared" ref="L129:L130" si="7">(J129-H129)</f>
+        <v>40</v>
+      </c>
+      <c r="M129" s="65"/>
+    </row>
+    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C130" s="96">
         <v>43864</v>
       </c>
-      <c r="D126" s="65" t="s">
+      <c r="D130" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="65">
-        <v>1</v>
-      </c>
-      <c r="F126" s="65" t="s">
+      <c r="E130" s="65">
+        <v>1</v>
+      </c>
+      <c r="F130" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G126" s="65" t="s">
+      <c r="G130" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="H126" s="76">
+      <c r="H130" s="76">
         <v>1950</v>
       </c>
-      <c r="I126" s="65"/>
-      <c r="J126" s="65">
+      <c r="I130" s="65"/>
+      <c r="J130" s="65">
         <v>2000</v>
       </c>
-      <c r="K126" s="65"/>
-      <c r="L126" s="65"/>
-      <c r="M126" s="65"/>
-    </row>
-    <row r="127" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="65"/>
-      <c r="I127" s="65"/>
-      <c r="J127" s="65">
-        <f>SUM(J124:J126)</f>
-        <v>2380</v>
-      </c>
-      <c r="K127" s="65"/>
-      <c r="L127" s="65"/>
-      <c r="M127" s="65"/>
-    </row>
-    <row r="128" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K128" s="83">
-        <v>12400</v>
-      </c>
-    </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C130" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E130" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H130" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I130" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="J130" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K130" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="L130" s="38" t="s">
+      <c r="K130" s="65"/>
+      <c r="L130" s="65">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="M130" s="65"/>
+      <c r="N130" t="s">
+        <v>265</v>
+      </c>
+      <c r="O130" t="s">
         <v>42</v>
       </c>
-      <c r="M130" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="100">
-        <v>43893</v>
-      </c>
-      <c r="D131" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="E131" s="65">
-        <v>1</v>
-      </c>
-      <c r="F131" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G131" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H131" s="76">
-        <v>35</v>
-      </c>
+      <c r="P130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C131" s="65"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
       <c r="I131" s="65"/>
       <c r="J131" s="65">
-        <v>100</v>
+        <f>SUM(J128:J130)</f>
+        <v>2380</v>
       </c>
       <c r="K131" s="65"/>
-      <c r="L131" s="65"/>
+      <c r="L131" s="106">
+        <f>SUM(L128:L130)</f>
+        <v>120</v>
+      </c>
       <c r="M131" s="65"/>
-    </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C132" s="100">
+      <c r="N131">
+        <v>39505</v>
+      </c>
+      <c r="O131">
+        <v>10097</v>
+      </c>
+      <c r="P131">
+        <v>12355</v>
+      </c>
+    </row>
+    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K132" s="82">
+        <v>12355</v>
+      </c>
+    </row>
+    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C134" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J134" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K134" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L134" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M134" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C135" s="96">
         <v>43893</v>
       </c>
-      <c r="D132" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="E132" s="65">
-        <v>1</v>
-      </c>
-      <c r="F132" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G132" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H132" s="76">
-        <v>150</v>
-      </c>
-      <c r="I132" s="65"/>
-      <c r="J132" s="65">
-        <v>250</v>
-      </c>
-      <c r="K132" s="65"/>
-      <c r="L132" s="65"/>
-      <c r="M132" s="65"/>
-    </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C133" s="100">
-        <v>43893</v>
-      </c>
-      <c r="D133" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="E133" s="65">
-        <v>1</v>
-      </c>
-      <c r="F133" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G133" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H133" s="76">
-        <v>130</v>
-      </c>
-      <c r="I133" s="65"/>
-      <c r="J133" s="65">
-        <v>150</v>
-      </c>
-      <c r="K133" s="65"/>
-      <c r="L133" s="65"/>
-      <c r="M133" s="65"/>
-    </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C134" s="100">
-        <v>43893</v>
-      </c>
-      <c r="D134" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="E134" s="65">
-        <v>1</v>
-      </c>
-      <c r="F134" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H134" s="76">
-        <v>120</v>
-      </c>
-      <c r="I134" s="65"/>
-      <c r="J134" s="65">
-        <v>200</v>
-      </c>
-      <c r="K134" s="65"/>
-      <c r="L134" s="65"/>
-      <c r="M134" s="65"/>
-    </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C135" s="100">
-        <v>43893</v>
-      </c>
       <c r="D135" s="65" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E135" s="65">
         <v>1</v>
       </c>
       <c r="F135" s="65" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="G135" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H135" s="76">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="I135" s="65"/>
       <c r="J135" s="65">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K135" s="65"/>
-      <c r="L135" s="65"/>
+      <c r="L135" s="65">
+        <f>(J135-H135)</f>
+        <v>65</v>
+      </c>
       <c r="M135" s="65"/>
     </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C136" s="100">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C136" s="96">
         <v>43893</v>
       </c>
       <c r="D136" s="65" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E136" s="65">
         <v>1</v>
@@ -8567,232 +10019,283 @@
         <v>67</v>
       </c>
       <c r="H136" s="76">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I136" s="65"/>
       <c r="J136" s="65">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K136" s="65"/>
-      <c r="L136" s="65"/>
+      <c r="L136" s="65">
+        <f t="shared" ref="L136:L142" si="8">(J136-H136)</f>
+        <v>100</v>
+      </c>
       <c r="M136" s="65"/>
     </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C137" s="100">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C137" s="96">
         <v>43893</v>
       </c>
       <c r="D137" s="65" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E137" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F137" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G137" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H137" s="76">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I137" s="65"/>
       <c r="J137" s="65">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K137" s="65"/>
-      <c r="L137" s="65"/>
+      <c r="L137" s="65">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
       <c r="M137" s="65"/>
     </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C138" s="100">
+    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C138" s="96">
         <v>43893</v>
       </c>
       <c r="D138" s="65" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E138" s="65">
         <v>1</v>
       </c>
       <c r="F138" s="65" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G138" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H138" s="76">
-        <v>1700</v>
+        <v>120</v>
       </c>
       <c r="I138" s="65"/>
       <c r="J138" s="65">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="K138" s="65"/>
-      <c r="L138" s="65"/>
+      <c r="L138" s="65">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
       <c r="M138" s="65"/>
     </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="65"/>
-      <c r="H139" s="65"/>
+    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C139" s="96">
+        <v>43893</v>
+      </c>
+      <c r="D139" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="E139" s="65">
+        <v>1</v>
+      </c>
+      <c r="F139" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G139" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H139" s="76">
+        <v>270</v>
+      </c>
       <c r="I139" s="65"/>
       <c r="J139" s="65">
-        <f>SUM(J131:J138)</f>
+        <v>300</v>
+      </c>
+      <c r="K139" s="65"/>
+      <c r="L139" s="65">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="M139" s="65"/>
+    </row>
+    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C140" s="96">
+        <v>43893</v>
+      </c>
+      <c r="D140" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E140" s="65">
+        <v>1</v>
+      </c>
+      <c r="F140" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G140" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H140" s="76">
+        <v>100</v>
+      </c>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65">
+        <v>150</v>
+      </c>
+      <c r="K140" s="65"/>
+      <c r="L140" s="65">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="M140" s="65"/>
+    </row>
+    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C141" s="96">
+        <v>43893</v>
+      </c>
+      <c r="D141" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="E141" s="65">
+        <v>6</v>
+      </c>
+      <c r="F141" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="G141" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H141" s="76">
+        <v>18</v>
+      </c>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65">
+        <v>30</v>
+      </c>
+      <c r="K141" s="65"/>
+      <c r="L141" s="65">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="M141" s="65"/>
+    </row>
+    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C142" s="96">
+        <v>43893</v>
+      </c>
+      <c r="D142" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="E142" s="65">
+        <v>1</v>
+      </c>
+      <c r="F142" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H142" s="76">
+        <v>1700</v>
+      </c>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65">
+        <v>1900</v>
+      </c>
+      <c r="K142" s="65"/>
+      <c r="L142" s="65">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="M142" s="65"/>
+      <c r="N142" t="s">
+        <v>265</v>
+      </c>
+      <c r="O142" t="s">
+        <v>42</v>
+      </c>
+      <c r="P142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+      <c r="J143" s="65">
+        <f>SUM(J135:J142)</f>
         <v>3080</v>
       </c>
-      <c r="K139" s="65"/>
-      <c r="L139" s="65"/>
-      <c r="M139" s="65"/>
-    </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K140" s="83">
-        <v>15480</v>
-      </c>
-    </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C142" s="38" t="s">
+      <c r="K143" s="65"/>
+      <c r="L143" s="106"/>
+      <c r="M143" s="65"/>
+      <c r="N143">
+        <v>42585</v>
+      </c>
+      <c r="O143">
+        <v>10654</v>
+      </c>
+      <c r="P143">
+        <v>15435</v>
+      </c>
+    </row>
+    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K144" s="82">
+        <v>15435</v>
+      </c>
+      <c r="L144" s="114">
+        <f>SUM(L135:L143)</f>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C146" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" s="38" t="s">
+      <c r="D146" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F142" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G142" s="38" t="s">
+      <c r="F146" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H142" s="38" t="s">
+      <c r="H146" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I142" s="38" t="s">
+      <c r="I146" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J142" s="38" t="s">
+      <c r="J146" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K142" s="38" t="s">
+      <c r="K146" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L142" s="38" t="s">
+      <c r="L146" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M142" s="39" t="s">
+      <c r="M146" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C143" s="100">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C147" s="96">
         <v>43924</v>
       </c>
-      <c r="D143" s="65" t="s">
+      <c r="D147" s="65" t="s">
         <v>233</v>
-      </c>
-      <c r="E143" s="65">
-        <v>1</v>
-      </c>
-      <c r="F143" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G143" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H143" s="76"/>
-      <c r="I143" s="65">
-        <v>4000</v>
-      </c>
-      <c r="J143" s="65"/>
-      <c r="K143" s="65"/>
-      <c r="L143" s="65"/>
-      <c r="M143" s="65"/>
-    </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C144" s="100">
-        <v>43924</v>
-      </c>
-      <c r="D144" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="E144" s="65">
-        <v>1</v>
-      </c>
-      <c r="F144" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G144" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H144" s="76"/>
-      <c r="I144" s="65">
-        <v>4000</v>
-      </c>
-      <c r="J144" s="65"/>
-      <c r="K144" s="65"/>
-      <c r="L144" s="65"/>
-      <c r="M144" s="65"/>
-    </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C145" s="100">
-        <v>43925</v>
-      </c>
-      <c r="D145" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="E145" s="65">
-        <v>1</v>
-      </c>
-      <c r="F145" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G145" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H145" s="76"/>
-      <c r="I145" s="65">
-        <v>1500</v>
-      </c>
-      <c r="J145" s="65"/>
-      <c r="K145" s="65"/>
-      <c r="L145" s="65"/>
-      <c r="M145" s="65"/>
-    </row>
-    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C146" s="100">
-        <v>43926</v>
-      </c>
-      <c r="D146" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="E146" s="65">
-        <v>1</v>
-      </c>
-      <c r="F146" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="G146" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H146" s="76"/>
-      <c r="I146" s="65">
-        <v>2500</v>
-      </c>
-      <c r="J146" s="65"/>
-      <c r="K146" s="65"/>
-      <c r="L146" s="65"/>
-      <c r="M146" s="65"/>
-    </row>
-    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C147" s="100">
-        <v>43927</v>
-      </c>
-      <c r="D147" s="65" t="s">
-        <v>237</v>
       </c>
       <c r="E147" s="65">
         <v>1</v>
@@ -8812,12 +10315,12 @@
       <c r="L147" s="65"/>
       <c r="M147" s="65"/>
     </row>
-    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C148" s="100">
-        <v>43928</v>
+    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C148" s="96">
+        <v>43924</v>
       </c>
       <c r="D148" s="65" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E148" s="65">
         <v>1</v>
@@ -8830,19 +10333,19 @@
       </c>
       <c r="H148" s="76"/>
       <c r="I148" s="65">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="J148" s="65"/>
       <c r="K148" s="65"/>
       <c r="L148" s="65"/>
       <c r="M148" s="65"/>
     </row>
-    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C149" s="100">
-        <v>43929</v>
+    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C149" s="96">
+        <v>43925</v>
       </c>
       <c r="D149" s="65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E149" s="65">
         <v>1</v>
@@ -8855,47 +10358,47 @@
       </c>
       <c r="H149" s="76"/>
       <c r="I149" s="65">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J149" s="65"/>
       <c r="K149" s="65"/>
       <c r="L149" s="65"/>
       <c r="M149" s="65"/>
     </row>
-    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C150" s="100">
-        <v>43930</v>
+    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C150" s="96">
+        <v>43926</v>
       </c>
       <c r="D150" s="65" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E150" s="65">
         <v>1</v>
       </c>
       <c r="F150" s="65" t="s">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="G150" s="65" t="s">
         <v>67</v>
       </c>
       <c r="H150" s="76"/>
       <c r="I150" s="65">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="J150" s="65"/>
       <c r="K150" s="65"/>
       <c r="L150" s="65"/>
       <c r="M150" s="65"/>
     </row>
-    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C151" s="100">
-        <v>43931</v>
+    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C151" s="96">
+        <v>43927</v>
       </c>
       <c r="D151" s="65" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E151" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" s="65" t="s">
         <v>34</v>
@@ -8905,34 +10408,926 @@
       </c>
       <c r="H151" s="76"/>
       <c r="I151" s="65">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="J151" s="65"/>
       <c r="K151" s="65"/>
       <c r="L151" s="65"/>
       <c r="M151" s="65"/>
     </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C152" s="100">
-        <v>43932</v>
-      </c>
-      <c r="D152" s="65"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
+    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C152" s="96">
+        <v>43928</v>
+      </c>
+      <c r="D152" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E152" s="65">
+        <v>1</v>
+      </c>
+      <c r="F152" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="65" t="s">
+        <v>67</v>
+      </c>
       <c r="H152" s="76"/>
       <c r="I152" s="65">
-        <f>SUM(I143:I151)</f>
-        <v>23300</v>
+        <v>1500</v>
       </c>
       <c r="J152" s="65"/>
       <c r="K152" s="65"/>
       <c r="L152" s="65"/>
       <c r="M152" s="65"/>
     </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K153" s="109">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C153" s="96">
+        <v>43929</v>
+      </c>
+      <c r="D153" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="E153" s="65">
+        <v>1</v>
+      </c>
+      <c r="F153" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H153" s="76"/>
+      <c r="I153" s="65">
+        <v>3000</v>
+      </c>
+      <c r="J153" s="65"/>
+      <c r="K153" s="65"/>
+      <c r="L153" s="65"/>
+      <c r="M153" s="65"/>
+    </row>
+    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C154" s="96">
+        <v>43930</v>
+      </c>
+      <c r="D154" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E154" s="65">
+        <v>1</v>
+      </c>
+      <c r="F154" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="G154" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H154" s="76"/>
+      <c r="I154" s="65">
+        <v>300</v>
+      </c>
+      <c r="J154" s="65"/>
+      <c r="K154" s="65"/>
+      <c r="L154" s="65"/>
+      <c r="M154" s="65"/>
+    </row>
+    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C155" s="96">
+        <v>43931</v>
+      </c>
+      <c r="D155" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E155" s="65">
+        <v>2</v>
+      </c>
+      <c r="F155" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H155" s="76"/>
+      <c r="I155" s="65">
+        <v>2500</v>
+      </c>
+      <c r="J155" s="65"/>
+      <c r="K155" s="65"/>
+      <c r="L155" s="65"/>
+      <c r="M155" s="65"/>
+      <c r="N155" t="s">
+        <v>265</v>
+      </c>
+      <c r="O155" t="s">
+        <v>42</v>
+      </c>
+      <c r="P155" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C156" s="96"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="76"/>
+      <c r="I156" s="65">
+        <f>SUM(I147:I155)</f>
+        <v>23300</v>
+      </c>
+      <c r="J156" s="65"/>
+      <c r="K156" s="65"/>
+      <c r="L156" s="65"/>
+      <c r="M156" s="65"/>
+      <c r="N156">
+        <v>42585</v>
+      </c>
+      <c r="O156">
+        <v>10654</v>
+      </c>
+      <c r="P156">
         <v>-7820</v>
+      </c>
+    </row>
+    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K157" s="99">
+        <v>-7820</v>
+      </c>
+    </row>
+    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C159" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I159" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J159" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L159" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M159" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C160" s="96">
+        <v>43954</v>
+      </c>
+      <c r="D160" s="65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E160" s="65">
+        <v>1</v>
+      </c>
+      <c r="F160" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H160" s="76">
+        <v>120</v>
+      </c>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65">
+        <v>200</v>
+      </c>
+      <c r="K160" s="65"/>
+      <c r="L160" s="65">
+        <f>(J160-H160)</f>
+        <v>80</v>
+      </c>
+      <c r="M160" s="65"/>
+    </row>
+    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C161" s="96">
+        <v>43954</v>
+      </c>
+      <c r="D161" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="E161" s="65">
+        <v>1</v>
+      </c>
+      <c r="F161" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H161" s="76">
+        <v>1650</v>
+      </c>
+      <c r="I161" s="65"/>
+      <c r="J161" s="65">
+        <v>2200</v>
+      </c>
+      <c r="K161" s="65"/>
+      <c r="L161" s="65">
+        <f>(J161-H161)</f>
+        <v>550</v>
+      </c>
+      <c r="M161" s="101"/>
+      <c r="N161" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="O161" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="P161" s="115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C162" s="103"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="79"/>
+      <c r="H162" s="100"/>
+      <c r="I162" s="79"/>
+      <c r="J162" s="79">
+        <f>SUM(J160:J161)</f>
+        <v>2400</v>
+      </c>
+      <c r="K162" s="79"/>
+      <c r="L162" s="105">
+        <v>630</v>
+      </c>
+      <c r="M162" s="79"/>
+      <c r="N162" s="115">
+        <v>44985</v>
+      </c>
+      <c r="O162" s="115">
+        <v>11284</v>
+      </c>
+      <c r="P162" s="115">
+        <v>-5420</v>
+      </c>
+    </row>
+    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K163" s="99">
+        <v>-5420</v>
+      </c>
+    </row>
+    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K164" s="50"/>
+    </row>
+    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C165" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I165" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J165" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K165" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L165" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M165" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C166" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D166" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E166" s="65">
+        <v>1</v>
+      </c>
+      <c r="F166" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H166" s="76">
+        <v>1700</v>
+      </c>
+      <c r="I166" s="65"/>
+      <c r="J166" s="65">
+        <v>1900</v>
+      </c>
+      <c r="K166" s="65"/>
+      <c r="L166" s="65">
+        <f>(J166-H166)</f>
+        <v>200</v>
+      </c>
+      <c r="M166" s="65"/>
+    </row>
+    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C167" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D167" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="E167" s="65">
+        <v>10</v>
+      </c>
+      <c r="F167" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="G167" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H167" s="76">
+        <v>5.5</v>
+      </c>
+      <c r="I167" s="101"/>
+      <c r="J167" s="65">
+        <v>100</v>
+      </c>
+      <c r="K167" s="102"/>
+      <c r="L167" s="65">
+        <v>45</v>
+      </c>
+      <c r="M167" s="65"/>
+    </row>
+    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C168" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D168" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E168" s="65">
+        <v>1</v>
+      </c>
+      <c r="F168" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H168" s="76">
+        <v>2900</v>
+      </c>
+      <c r="I168" s="101"/>
+      <c r="J168" s="65">
+        <v>3200</v>
+      </c>
+      <c r="K168" s="102"/>
+      <c r="L168" s="65">
+        <v>300</v>
+      </c>
+      <c r="M168" s="65"/>
+    </row>
+    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C169" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D169" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="E169" s="65">
+        <v>1</v>
+      </c>
+      <c r="F169" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="G169" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H169" s="76">
+        <v>900</v>
+      </c>
+      <c r="I169" s="101"/>
+      <c r="J169" s="65">
+        <v>1000</v>
+      </c>
+      <c r="K169" s="102"/>
+      <c r="L169" s="65">
+        <v>100</v>
+      </c>
+      <c r="M169" s="65"/>
+    </row>
+    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C170" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D170" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E170" s="65">
+        <v>1</v>
+      </c>
+      <c r="F170" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H170" s="76">
+        <v>2600</v>
+      </c>
+      <c r="I170" s="101"/>
+      <c r="J170" s="65">
+        <v>2600</v>
+      </c>
+      <c r="K170" s="102"/>
+      <c r="L170" s="65">
+        <v>0</v>
+      </c>
+      <c r="M170" s="65"/>
+    </row>
+    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C171" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D171" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+      <c r="I171" s="65">
+        <v>800</v>
+      </c>
+      <c r="J171" s="65"/>
+      <c r="K171" s="65"/>
+      <c r="L171" s="65">
+        <v>0</v>
+      </c>
+      <c r="M171" s="65"/>
+    </row>
+    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C172" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D172" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E172" s="65">
+        <v>1</v>
+      </c>
+      <c r="F172" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H172" s="65">
+        <v>2850</v>
+      </c>
+      <c r="I172" s="65"/>
+      <c r="J172" s="65">
+        <v>3200</v>
+      </c>
+      <c r="K172" s="65"/>
+      <c r="L172" s="65">
+        <f>(J172-H172)</f>
+        <v>350</v>
+      </c>
+      <c r="M172" s="65"/>
+    </row>
+    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C173" s="96"/>
+      <c r="D173" s="65"/>
+      <c r="E173" s="65"/>
+      <c r="F173" s="65"/>
+      <c r="G173" s="65"/>
+      <c r="H173" s="65"/>
+      <c r="I173" s="65"/>
+      <c r="J173" s="65"/>
+      <c r="K173" s="65"/>
+      <c r="L173" s="65"/>
+      <c r="M173" s="65"/>
+    </row>
+    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C174" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D174" s="65">
+        <v>2.8</v>
+      </c>
+      <c r="E174" s="65">
+        <v>1</v>
+      </c>
+      <c r="F174" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H174" s="65">
+        <v>260</v>
+      </c>
+      <c r="I174" s="65"/>
+      <c r="J174" s="65">
+        <v>350</v>
+      </c>
+      <c r="K174" s="65"/>
+      <c r="L174" s="65">
+        <v>90</v>
+      </c>
+      <c r="M174" s="65"/>
+    </row>
+    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C175" s="96">
+        <v>44015</v>
+      </c>
+      <c r="D175" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="E175" s="65">
+        <v>1</v>
+      </c>
+      <c r="F175" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G175" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H175" s="65">
+        <v>250</v>
+      </c>
+      <c r="I175" s="65"/>
+      <c r="J175" s="65">
+        <v>350</v>
+      </c>
+      <c r="K175" s="65"/>
+      <c r="L175" s="65">
+        <v>100</v>
+      </c>
+      <c r="M175" s="65"/>
+      <c r="N175" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="O175" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="P175" s="116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C176" s="96"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="65"/>
+      <c r="F176" s="65"/>
+      <c r="G176" s="65"/>
+      <c r="H176" s="65"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="65">
+        <f>SUM(J166:J175)</f>
+        <v>12700</v>
+      </c>
+      <c r="K176" s="65"/>
+      <c r="L176" s="65"/>
+      <c r="M176" s="65"/>
+      <c r="N176" s="116">
+        <v>57685</v>
+      </c>
+      <c r="O176" s="116">
+        <v>12469</v>
+      </c>
+      <c r="P176" s="116">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="K177" s="37">
+        <v>6480</v>
+      </c>
+      <c r="L177" s="99">
+        <f>SUM(L166:L175)</f>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C179" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="G179" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H179" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I179" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J179" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K179" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L179" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M179" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C180" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D180" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E180" s="65">
+        <v>1</v>
+      </c>
+      <c r="F180" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="G180" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H180" s="76">
+        <v>500</v>
+      </c>
+      <c r="I180" s="65"/>
+      <c r="J180" s="65">
+        <v>600</v>
+      </c>
+      <c r="K180" s="65"/>
+      <c r="L180" s="65">
+        <f>(J180-H180)</f>
+        <v>100</v>
+      </c>
+      <c r="M180" s="65"/>
+    </row>
+    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C181" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D181" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E181" s="65">
+        <v>1</v>
+      </c>
+      <c r="F181" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H181" s="76">
+        <v>260</v>
+      </c>
+      <c r="I181" s="65"/>
+      <c r="J181" s="65">
+        <v>300</v>
+      </c>
+      <c r="K181" s="65"/>
+      <c r="L181" s="65">
+        <f t="shared" ref="L181:L186" si="9">(J181-H181)</f>
+        <v>40</v>
+      </c>
+      <c r="M181" s="65"/>
+    </row>
+    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C182" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D182" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E182" s="65">
+        <v>1</v>
+      </c>
+      <c r="F182" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H182" s="76">
+        <v>260</v>
+      </c>
+      <c r="I182" s="65"/>
+      <c r="J182" s="65">
+        <v>300</v>
+      </c>
+      <c r="K182" s="65"/>
+      <c r="L182" s="65">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M182" s="65"/>
+    </row>
+    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C183" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D183" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="E183" s="65">
+        <v>10</v>
+      </c>
+      <c r="F183" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="G183" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H183" s="76">
+        <v>30</v>
+      </c>
+      <c r="I183" s="65"/>
+      <c r="J183" s="65">
+        <v>50</v>
+      </c>
+      <c r="K183" s="65"/>
+      <c r="L183" s="65">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="M183" s="65"/>
+    </row>
+    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C184" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="65">
+        <v>1</v>
+      </c>
+      <c r="F184" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H184" s="76">
+        <v>160</v>
+      </c>
+      <c r="I184" s="65"/>
+      <c r="J184" s="65">
+        <v>300</v>
+      </c>
+      <c r="K184" s="65"/>
+      <c r="L184" s="65">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="M184" s="65"/>
+    </row>
+    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C185" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D185" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E185" s="65">
+        <v>1</v>
+      </c>
+      <c r="F185" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H185" s="76">
+        <v>480</v>
+      </c>
+      <c r="I185" s="65"/>
+      <c r="J185" s="65">
+        <v>600</v>
+      </c>
+      <c r="K185" s="65"/>
+      <c r="L185" s="65">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="M185" s="65"/>
+    </row>
+    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C186" s="96">
+        <v>44046</v>
+      </c>
+      <c r="D186" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E186" s="65">
+        <v>1</v>
+      </c>
+      <c r="F186" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G186" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H186" s="76">
+        <v>150</v>
+      </c>
+      <c r="I186" s="65"/>
+      <c r="J186" s="65">
+        <v>250</v>
+      </c>
+      <c r="K186" s="65"/>
+      <c r="L186" s="65">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="M186" s="65"/>
+      <c r="N186" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="O186" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="P186" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="R186" s="131" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C187" s="65"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="65"/>
+      <c r="F187" s="65"/>
+      <c r="G187" s="65"/>
+      <c r="H187" s="65"/>
+      <c r="I187" s="65"/>
+      <c r="J187" s="39">
+        <f>SUM(J180:J186)</f>
+        <v>2400</v>
+      </c>
+      <c r="K187" s="65"/>
+      <c r="L187" s="118">
+        <f>SUM(L180:L186)</f>
+        <v>560</v>
+      </c>
+      <c r="M187" s="65"/>
+      <c r="N187">
+        <v>60085</v>
+      </c>
+      <c r="O187">
+        <v>13029</v>
+      </c>
+      <c r="P187">
+        <v>8880</v>
+      </c>
+      <c r="Q187">
+        <v>7230</v>
+      </c>
+      <c r="R187">
+        <v>16110</v>
       </c>
     </row>
   </sheetData>
@@ -8952,7 +11347,7 @@
   <dimension ref="C4:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8998,7 +11393,7 @@
       </c>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="100">
+      <c r="C5" s="96">
         <v>43833</v>
       </c>
       <c r="D5" s="65" t="s">
@@ -9025,7 +11420,7 @@
       <c r="M5" s="65"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="83">
+      <c r="K6" s="82">
         <f>SUM(J5)</f>
         <v>200</v>
       </c>
@@ -9043,7 +11438,7 @@
   <dimension ref="C3:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9091,7 +11486,7 @@
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="83" t="s">
         <v>182</v>
       </c>
       <c r="D4" s="65" t="s">
@@ -9118,7 +11513,7 @@
       <c r="M4" s="65"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="65" t="s">
@@ -9145,7 +11540,7 @@
       <c r="M5" s="65"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="83">
+      <c r="K6" s="82">
         <f>SUM(J4:J5)</f>
         <v>350</v>
       </c>
@@ -9162,8 +11557,8 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9176,15 +11571,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="49" t="s">
@@ -9573,8 +11968,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39">
-        <f>SUM(J3:J15)</f>
-        <v>8480</v>
+        <v>5730</v>
       </c>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
@@ -9597,7 +11991,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="91">
+      <c r="K18" s="88">
         <v>5730</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -9616,12 +12010,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="2"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C1:L19"/>
+  <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9633,14 +12027,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -9772,7 +12166,7 @@
         <v>120</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="95">
+      <c r="I7" s="91">
         <v>250</v>
       </c>
       <c r="J7" s="5"/>
@@ -9799,7 +12193,7 @@
         <v>235</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="95">
+      <c r="I8" s="91">
         <v>350</v>
       </c>
       <c r="J8" s="5"/>
@@ -9816,7 +12210,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="95"/>
+      <c r="I9" s="91"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="11">
@@ -9841,7 +12235,7 @@
         <v>115</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="95">
+      <c r="I10" s="91">
         <v>200</v>
       </c>
       <c r="J10" s="5"/>
@@ -9858,7 +12252,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="95"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="11">
@@ -9883,7 +12277,7 @@
         <v>120</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="95">
+      <c r="I12" s="91">
         <v>250</v>
       </c>
       <c r="J12" s="5"/>
@@ -9901,7 +12295,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="96">
+      <c r="J13" s="92">
         <f>SUM(I7:I12)</f>
         <v>1050</v>
       </c>
@@ -9937,7 +12331,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="91">
+      <c r="J15" s="88">
         <v>50</v>
       </c>
       <c r="K15" s="5"/>
@@ -9998,13 +12392,25 @@
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="4">
+        <v>44015</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5">
+        <v>260</v>
+      </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5">
+        <v>350</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -10017,13 +12423,25 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="91">
-        <v>400</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="88">
+        <v>700</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
